--- a/premise/data/additional_inventories/lci-PV-GaAs.xlsx
+++ b/premise/data/additional_inventories/lci-PV-GaAs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E899635E-ED53-458B-9D3B-3910D3B0735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE82CCC-E568-4117-B134-95913218A925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-3615" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV_GaAs" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="278">
   <si>
     <t>Activity</t>
   </si>
@@ -234,9 +234,6 @@
     <t>sodium</t>
   </si>
   <si>
-    <t>xylene</t>
-  </si>
-  <si>
     <t>gallium chloride</t>
   </si>
   <si>
@@ -348,12 +345,6 @@
     <t>biosphere3</t>
   </si>
   <si>
-    <t>hydrogen, liquid</t>
-  </si>
-  <si>
-    <t>hydrogen cracking, APME</t>
-  </si>
-  <si>
     <t>hydrogen sulfide production</t>
   </si>
   <si>
@@ -528,9 +519,6 @@
     <t>diethylene glycol</t>
   </si>
   <si>
-    <t>ethylene glycol production</t>
-  </si>
-  <si>
     <t>changed "electricity (polishing)" to "electricity, low voltage"</t>
   </si>
   <si>
@@ -600,12 +588,6 @@
     <t>packaging film production, low density polyethylene</t>
   </si>
   <si>
-    <t>sodium chloride electrolysis</t>
-  </si>
-  <si>
-    <t>xylene production</t>
-  </si>
-  <si>
     <t>changed "Hazardous waste" to "hazardous waste, for incineration"</t>
   </si>
   <si>
@@ -660,12 +642,6 @@
     <t>nitrogen, liquid</t>
   </si>
   <si>
-    <t>air separation, cryogenic</t>
-  </si>
-  <si>
-    <t>changed "nitrogen" to "nitrogen, liquid" and "nitrogen, liquid air separation, cryogenic " to "air separation, cryogenic"</t>
-  </si>
-  <si>
     <t>Water</t>
   </si>
   <si>
@@ -723,9 +699,6 @@
     <t>coating, drying, optical lithography</t>
   </si>
   <si>
-    <t xml:space="preserve">electricity production, photovoltaic, GaAs </t>
-  </si>
-  <si>
     <t>photovoltaic installation, GaAs</t>
   </si>
   <si>
@@ -862,6 +835,36 @@
   </si>
   <si>
     <t>gallium chloride production</t>
+  </si>
+  <si>
+    <t>market for diethylene glycol</t>
+  </si>
+  <si>
+    <t>Original inventory, "hydrogen cracking, APME", "hydrogen, liquid", has been deleted in EI3.10</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, low pressure</t>
+  </si>
+  <si>
+    <t>unsaturated hydrocarbons production, steam cracking operation, average</t>
+  </si>
+  <si>
+    <t>market for xylene, mixed</t>
+  </si>
+  <si>
+    <t>xylene, mixed</t>
+  </si>
+  <si>
+    <t>market for nitrogen, liquid</t>
+  </si>
+  <si>
+    <t>sodium production, sodium chloride electrolysis, molten salt cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricity production, photovoltaic, 0.28kWp, GaAs </t>
+  </si>
+  <si>
+    <t>photovoltaic installation, 0.28kWp, GaAs</t>
   </si>
 </sst>
 </file>
@@ -1413,8 +1416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I442"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A409" zoomScale="108" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B437" sqref="B437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -1435,7 +1438,7 @@
         <v>13</v>
       </c>
       <c r="B1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1454,7 +1457,7 @@
         <v>0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="12"/>
@@ -1466,10 +1469,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="12"/>
@@ -1514,7 +1517,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="12"/>
@@ -1556,10 +1559,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="12"/>
@@ -1621,7 +1624,7 @@
         <v>GaAs wafer with resist patterned</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15" s="12">
         <v>1</v>
@@ -1639,18 +1642,18 @@
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75">
       <c r="A16" s="31" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D16" s="12">
         <v>1</v>
@@ -1659,7 +1662,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>17</v>
@@ -1669,13 +1672,13 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D17" s="18">
         <v>0.06</v>
@@ -1691,18 +1694,18 @@
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="18">
         <v>0.06</v>
@@ -1721,13 +1724,13 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="18">
         <v>5.5999999999999995E-4</v>
@@ -1743,18 +1746,18 @@
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="D20" s="18">
         <v>0.13</v>
@@ -1773,13 +1776,13 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D21" s="12">
         <v>16</v>
@@ -1795,18 +1798,18 @@
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D22" s="18">
         <v>13</v>
@@ -1825,7 +1828,7 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="3"/>
@@ -1836,25 +1839,25 @@
         <v>5</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C24" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D24" s="12">
         <v>-0.25</v>
@@ -1870,7 +1873,7 @@
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1890,10 +1893,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="12"/>
@@ -1938,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="12"/>
@@ -1980,10 +1983,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="12"/>
@@ -2045,7 +2048,7 @@
         <v>GaAs wafer with resist and gold particles</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D36" s="12">
         <v>1</v>
@@ -2054,7 +2057,7 @@
         <v>20</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>10</v>
@@ -2064,13 +2067,13 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="41" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D37" s="12">
         <v>1</v>
@@ -2079,7 +2082,7 @@
         <v>20</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>17</v>
@@ -2089,13 +2092,13 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>26</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D38" s="12">
         <v>1.6899999999999999E-4</v>
@@ -2114,13 +2117,13 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D39" s="12">
         <v>2.1999999999999999E-2</v>
@@ -2139,13 +2142,13 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D40" s="12">
         <v>16</v>
@@ -2161,18 +2164,18 @@
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D41" s="12">
         <v>0.7</v>
@@ -2191,7 +2194,7 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B42" s="1"/>
       <c r="C42" s="3"/>
@@ -2202,19 +2205,19 @@
         <v>5</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I42" s="1"/>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B43" s="1"/>
       <c r="C43" s="3"/>
@@ -2225,19 +2228,19 @@
         <v>5</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I43" s="1"/>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
@@ -2248,27 +2251,27 @@
         <v>12</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B45" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C45" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D45" s="12">
         <v>-1.6700000000000001E-6</v>
@@ -2284,7 +2287,7 @@
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -2292,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="12"/>
@@ -2304,10 +2307,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B48" s="41" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="12"/>
@@ -2352,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C51" s="1"/>
       <c r="D51" s="12"/>
@@ -2394,10 +2397,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="12"/>
@@ -2459,7 +2462,7 @@
         <v>GaAs wafer with gold particles</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D57" s="12">
         <v>1</v>
@@ -2468,7 +2471,7 @@
         <v>20</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>10</v>
@@ -2484,7 +2487,7 @@
         <v>24</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D58" s="12">
         <v>1</v>
@@ -2493,7 +2496,7 @@
         <v>20</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>17</v>
@@ -2503,13 +2506,13 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D59" s="4">
         <v>0.36</v>
@@ -2525,18 +2528,18 @@
       </c>
       <c r="H59" s="1"/>
       <c r="I59" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="D60" s="4">
         <v>8</v>
@@ -2552,18 +2555,18 @@
       </c>
       <c r="H60" s="1"/>
       <c r="I60" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D61" s="4">
         <v>0.64700000000000002</v>
@@ -2582,13 +2585,13 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C62" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D62" s="4">
         <v>-0.36</v>
@@ -2604,7 +2607,7 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2612,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C64" s="1"/>
       <c r="D64" s="12"/>
@@ -2624,10 +2627,10 @@
     </row>
     <row r="65" spans="1:9">
       <c r="A65" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B65" s="41" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C65" s="1"/>
       <c r="D65" s="12"/>
@@ -2672,7 +2675,7 @@
         <v>1</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="12"/>
@@ -2714,10 +2717,10 @@
     </row>
     <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="12"/>
@@ -2779,7 +2782,7 @@
         <v>GaAs wafer with nanowires</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D74" s="12">
         <v>1</v>
@@ -2788,7 +2791,7 @@
         <v>20</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>10</v>
@@ -2804,7 +2807,7 @@
         <v>28</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D75" s="12">
         <v>1</v>
@@ -2813,7 +2816,7 @@
         <v>20</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>17</v>
@@ -2823,13 +2826,13 @@
     </row>
     <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>105</v>
+        <v>270</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D76" s="4">
         <v>2.1</v>
@@ -2844,17 +2847,19 @@
         <v>17</v>
       </c>
       <c r="H76" s="1"/>
-      <c r="I76" s="1"/>
+      <c r="I76" s="1" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D77" s="4">
         <v>8.4999999999999999E-6</v>
@@ -2873,13 +2878,13 @@
     </row>
     <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D78" s="4">
         <v>8.4999999999999999E-6</v>
@@ -2895,18 +2900,18 @@
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="79" spans="1:9">
       <c r="A79" s="29" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="B79" s="29" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D79" s="4">
         <v>1.48E-3</v>
@@ -2915,7 +2920,7 @@
         <v>5</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>17</v>
@@ -2925,13 +2930,13 @@
     </row>
     <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>32</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D80" s="4">
         <v>2.98E-3</v>
@@ -2950,13 +2955,13 @@
     </row>
     <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D81" s="4">
         <v>8.4999999999999999E-6</v>
@@ -2972,18 +2977,18 @@
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D82" s="4">
         <v>0.68</v>
@@ -3002,13 +3007,13 @@
     </row>
     <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B83" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C83" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D83" s="4">
         <v>-3.3E-3</v>
@@ -3024,7 +3029,7 @@
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -3032,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="C85" s="1"/>
       <c r="D85" s="12"/>
@@ -3044,10 +3049,10 @@
     </row>
     <row r="86" spans="1:9">
       <c r="A86" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B86" s="41" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C86" s="1"/>
       <c r="D86" s="12"/>
@@ -3092,7 +3097,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C89" s="1"/>
       <c r="D89" s="12"/>
@@ -3134,10 +3139,10 @@
     </row>
     <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C92" s="1"/>
       <c r="D92" s="12"/>
@@ -3199,7 +3204,7 @@
         <v>GaAs wafer - re-polished for reuse</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D95" s="12">
         <v>1</v>
@@ -3208,25 +3213,25 @@
         <v>20</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H95" s="1"/>
       <c r="I95" s="3" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D96" s="12">
         <v>1</v>
@@ -3235,7 +3240,7 @@
         <v>20</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>17</v>
@@ -3245,13 +3250,13 @@
     </row>
     <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D97" s="4">
         <v>1.02</v>
@@ -3267,18 +3272,18 @@
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D98" s="4">
         <v>0.69299999999999995</v>
@@ -3294,18 +3299,18 @@
       </c>
       <c r="H98" s="1"/>
       <c r="I98" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B99" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="C99" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D99" s="4">
         <v>0.69799999999999995</v>
@@ -3324,13 +3329,13 @@
     </row>
     <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D100" s="4">
         <v>0.17199999999999999</v>
@@ -3346,18 +3351,18 @@
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" spans="1:9">
       <c r="A101" s="10" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D101" s="4">
         <v>11.6</v>
@@ -3376,13 +3381,13 @@
     </row>
     <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D102" s="4">
         <v>2.7599999999999999E-3</v>
@@ -3398,18 +3403,18 @@
       </c>
       <c r="H102" s="1"/>
       <c r="I102" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D103" s="4">
         <v>9.8699999999999992</v>
@@ -3425,18 +3430,18 @@
       </c>
       <c r="H103" s="1"/>
       <c r="I103" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B104" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B104" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C104" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D104" s="4">
         <v>-2.59</v>
@@ -3452,7 +3457,7 @@
       </c>
       <c r="H104" s="1"/>
       <c r="I104" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -3471,7 +3476,7 @@
         <v>0</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C106" s="1"/>
       <c r="D106" s="12"/>
@@ -3483,10 +3488,10 @@
     </row>
     <row r="107" spans="1:9">
       <c r="A107" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B107" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C107" s="1"/>
       <c r="D107" s="12"/>
@@ -3531,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C110" s="1"/>
       <c r="D110" s="12"/>
@@ -3573,10 +3578,10 @@
     </row>
     <row r="113" spans="1:9">
       <c r="A113" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C113" s="1"/>
       <c r="D113" s="12"/>
@@ -3638,7 +3643,7 @@
         <v>polycrystalline GaAs boule</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D116" s="12">
         <v>1</v>
@@ -3659,13 +3664,13 @@
     </row>
     <row r="117" spans="1:9">
       <c r="A117" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B117" s="10" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D117" s="19">
         <v>0.23599999999999999</v>
@@ -3674,7 +3679,7 @@
         <v>5</v>
       </c>
       <c r="F117" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>17</v>
@@ -3684,13 +3689,13 @@
     </row>
     <row r="118" spans="1:9">
       <c r="A118" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="B118" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D118" s="19">
         <v>0.51600000000000001</v>
@@ -3699,7 +3704,7 @@
         <v>5</v>
       </c>
       <c r="F118" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>17</v>
@@ -3709,13 +3714,13 @@
     </row>
     <row r="119" spans="1:9">
       <c r="A119" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D119" s="19">
         <v>0.01</v>
@@ -3731,18 +3736,18 @@
       </c>
       <c r="H119" s="1"/>
       <c r="I119" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:9">
       <c r="A120" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D120" s="19">
         <v>50</v>
@@ -3758,18 +3763,18 @@
       </c>
       <c r="H120" s="1"/>
       <c r="I120" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:9">
       <c r="A121" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B121" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D121" s="19">
         <v>-0.01</v>
@@ -3785,7 +3790,7 @@
       </c>
       <c r="H121" s="1"/>
       <c r="I121" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -3796,7 +3801,7 @@
         <v>0</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C123" s="1"/>
       <c r="D123" s="12"/>
@@ -3808,10 +3813,10 @@
     </row>
     <row r="124" spans="1:9">
       <c r="A124" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B124" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C124" s="1"/>
       <c r="D124" s="12"/>
@@ -3856,7 +3861,7 @@
         <v>1</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C127" s="1"/>
       <c r="D127" s="12"/>
@@ -3898,10 +3903,10 @@
     </row>
     <row r="130" spans="1:9">
       <c r="A130" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C130" s="1"/>
       <c r="D130" s="12"/>
@@ -3963,7 +3968,7 @@
         <v xml:space="preserve">7N Gallium </v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D133" s="12">
         <v>1</v>
@@ -3973,7 +3978,7 @@
         <v>kilogram</v>
       </c>
       <c r="F133" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>10</v>
@@ -3983,13 +3988,13 @@
     </row>
     <row r="134" spans="1:9">
       <c r="A134" s="10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D134" s="19">
         <v>1.4285714</v>
@@ -4005,18 +4010,18 @@
       </c>
       <c r="H134" s="1"/>
       <c r="I134" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="135" spans="1:9">
       <c r="A135" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D135" s="19">
         <v>5.7142856999999996</v>
@@ -4032,7 +4037,7 @@
       </c>
       <c r="H135" s="1"/>
       <c r="I135" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -4046,7 +4051,7 @@
         <v>0</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="C137" s="1"/>
       <c r="D137" s="12"/>
@@ -4058,10 +4063,10 @@
     </row>
     <row r="138" spans="1:9">
       <c r="A138" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B138" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C138" s="1"/>
       <c r="D138" s="12"/>
@@ -4076,7 +4081,7 @@
         <v>2</v>
       </c>
       <c r="B139" s="10" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C139" s="1"/>
       <c r="D139" s="12"/>
@@ -4106,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C141" s="1"/>
       <c r="D141" s="12"/>
@@ -4148,10 +4153,10 @@
     </row>
     <row r="144" spans="1:9">
       <c r="A144" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C144" s="1"/>
       <c r="D144" s="12"/>
@@ -4213,7 +4218,7 @@
         <v>7N Arsenic</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D147" s="12">
         <v>1</v>
@@ -4223,7 +4228,7 @@
         <v>kilogram</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G147" s="1" t="s">
         <v>10</v>
@@ -4233,13 +4238,13 @@
     </row>
     <row r="148" spans="1:9">
       <c r="A148" s="10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B148" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D148" s="19">
         <v>1.4705881999999999</v>
@@ -4255,18 +4260,18 @@
       </c>
       <c r="H148" s="1"/>
       <c r="I148" s="10" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="149" spans="1:9">
       <c r="A149" s="1" t="s">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>105</v>
+        <v>270</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D149" s="19">
         <v>9.4117599999999996E-2</v>
@@ -4282,18 +4287,18 @@
       </c>
       <c r="H149" s="1"/>
       <c r="I149" s="10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="150" spans="1:9">
       <c r="A150" s="10" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D150" s="19">
         <v>4.7058799999999998E-2</v>
@@ -4309,18 +4314,18 @@
       </c>
       <c r="H150" s="1"/>
       <c r="I150" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D151" s="19">
         <v>8.1176470999999992</v>
@@ -4336,7 +4341,7 @@
       </c>
       <c r="H151" s="1"/>
       <c r="I151" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -4344,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C153" s="1"/>
       <c r="D153" s="12"/>
@@ -4356,10 +4361,10 @@
     </row>
     <row r="154" spans="1:9">
       <c r="A154" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B154" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C154" s="1"/>
       <c r="D154" s="12"/>
@@ -4404,7 +4409,7 @@
         <v>1</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C157" s="1"/>
       <c r="D157" s="12"/>
@@ -4446,10 +4451,10 @@
     </row>
     <row r="160" spans="1:9">
       <c r="A160" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C160" s="1"/>
       <c r="D160" s="12"/>
@@ -4511,7 +4516,7 @@
         <v>single-crystal GaAs boule</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D163" s="12">
         <v>1</v>
@@ -4521,7 +4526,7 @@
         <v>kilogram</v>
       </c>
       <c r="F163" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G163" s="1" t="s">
         <v>10</v>
@@ -4531,13 +4536,13 @@
     </row>
     <row r="164" spans="1:9">
       <c r="A164" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="B164" s="10" t="s">
         <v>37</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D164" s="19">
         <v>1.08</v>
@@ -4546,7 +4551,7 @@
         <v>5</v>
       </c>
       <c r="F164" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G164" s="1" t="s">
         <v>17</v>
@@ -4556,13 +4561,13 @@
     </row>
     <row r="165" spans="1:9">
       <c r="A165" s="10" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D165" s="19">
         <v>5.0000000000000001E-3</v>
@@ -4578,18 +4583,18 @@
       </c>
       <c r="H165" s="1"/>
       <c r="I165" s="10" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="166" spans="1:9">
       <c r="A166" s="10" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D166" s="19">
         <v>0.01</v>
@@ -4605,18 +4610,18 @@
       </c>
       <c r="H166" s="1"/>
       <c r="I166" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="167" spans="1:9">
       <c r="A167" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D167" s="19">
         <v>160</v>
@@ -4632,18 +4637,18 @@
       </c>
       <c r="H167" s="1"/>
       <c r="I167" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="168" spans="1:9">
       <c r="A168" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D168" s="19">
         <v>-0.01</v>
@@ -4659,18 +4664,18 @@
       </c>
       <c r="H168" s="1"/>
       <c r="I168" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:9">
       <c r="A169" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D169" s="19">
         <v>-5.0000000000000001E-3</v>
@@ -4686,18 +4691,18 @@
       </c>
       <c r="H169" s="1"/>
       <c r="I169" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="170" spans="1:9">
       <c r="A170" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B170" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D170" s="19">
         <v>-0.08</v>
@@ -4713,7 +4718,7 @@
       </c>
       <c r="H170" s="1"/>
       <c r="I170" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -4728,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="C172" s="1"/>
       <c r="D172" s="12"/>
@@ -4740,10 +4745,10 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B173" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C173" s="1"/>
       <c r="D173" s="12"/>
@@ -4788,7 +4793,7 @@
         <v>1</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C176" s="1"/>
       <c r="D176" s="12"/>
@@ -4830,10 +4835,10 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C179" s="1"/>
       <c r="D179" s="12"/>
@@ -4895,7 +4900,7 @@
         <v>single-crystal GaAs ingot</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D182" s="12">
         <f>B177</f>
@@ -4906,7 +4911,7 @@
         <v>kilogram</v>
       </c>
       <c r="F182" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G182" s="1" t="s">
         <v>10</v>
@@ -4916,13 +4921,13 @@
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="B183" s="10" t="s">
         <v>38</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D183" s="19">
         <v>1.0989011</v>
@@ -4931,7 +4936,7 @@
         <v>5</v>
       </c>
       <c r="F183" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G183" s="1" t="s">
         <v>17</v>
@@ -4941,13 +4946,13 @@
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B184" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D184" s="19">
         <v>5.7140000000000001E-8</v>
@@ -4963,18 +4968,18 @@
       </c>
       <c r="H184" s="1"/>
       <c r="I184" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B185" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D185" s="19">
         <v>4.3960000000000001E-4</v>
@@ -4983,7 +4988,7 @@
         <v>4</v>
       </c>
       <c r="F185" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G185" s="1" t="s">
         <v>17</v>
@@ -4993,13 +4998,13 @@
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D186" s="19">
         <v>0.43956040000000002</v>
@@ -5015,18 +5020,18 @@
       </c>
       <c r="H186" s="1"/>
       <c r="I186" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D187" s="19">
         <v>7.4725299999999995E-2</v>
@@ -5042,18 +5047,18 @@
       </c>
       <c r="H187" s="1"/>
       <c r="I187" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D188" s="19">
         <v>0.43956040000000002</v>
@@ -5069,18 +5074,18 @@
       </c>
       <c r="H188" s="1"/>
       <c r="I188" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B189" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D189" s="19">
         <v>-5.0549499999999997E-2</v>
@@ -5096,7 +5101,7 @@
       </c>
       <c r="H189" s="1"/>
       <c r="I189" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -5111,7 +5116,7 @@
         <v>0</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="C191" s="1"/>
       <c r="D191" s="12"/>
@@ -5123,10 +5128,10 @@
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B192" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C192" s="1"/>
       <c r="D192" s="12"/>
@@ -5171,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C195" s="1"/>
       <c r="D195" s="12"/>
@@ -5213,10 +5218,10 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C198" s="1"/>
       <c r="D198" s="12"/>
@@ -5278,7 +5283,7 @@
         <v>diamond saw</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D201" s="12">
         <f>B196</f>
@@ -5289,7 +5294,7 @@
         <v>unit</v>
       </c>
       <c r="F201" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G201" s="1" t="s">
         <v>10</v>
@@ -5299,13 +5304,13 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="10" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B202" s="10" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D202" s="19">
         <v>0.02</v>
@@ -5321,18 +5326,18 @@
       </c>
       <c r="H202" s="1"/>
       <c r="I202" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="B203" s="10" t="s">
         <v>41</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D203" s="19">
         <v>2.0000000000000001E-4</v>
@@ -5341,7 +5346,7 @@
         <v>5</v>
       </c>
       <c r="F203" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G203" s="1" t="s">
         <v>17</v>
@@ -5351,13 +5356,13 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D204" s="19">
         <v>10</v>
@@ -5373,7 +5378,7 @@
       </c>
       <c r="H204" s="1"/>
       <c r="I204" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -5387,7 +5392,7 @@
         <v>0</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C206" s="1"/>
       <c r="D206" s="12"/>
@@ -5399,10 +5404,10 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B207" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C207" s="1"/>
       <c r="D207" s="12"/>
@@ -5447,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C210" s="1"/>
       <c r="D210" s="12"/>
@@ -5489,10 +5494,10 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C213" s="1"/>
       <c r="D213" s="12"/>
@@ -5554,7 +5559,7 @@
         <v>synthetic diamond</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D216" s="12">
         <f>B211</f>
@@ -5565,7 +5570,7 @@
         <v>kilogram</v>
       </c>
       <c r="F216" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G216" s="1" t="s">
         <v>10</v>
@@ -5575,13 +5580,13 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="35" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B217" s="35" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C217" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D217" s="19">
         <v>14.545455</v>
@@ -5597,18 +5602,18 @@
       </c>
       <c r="H217" s="1"/>
       <c r="I217" s="37" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="1" t="s">
-        <v>106</v>
+        <v>271</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>105</v>
+        <v>270</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D218" s="19">
         <v>3.6363600000000003E-2</v>
@@ -5624,18 +5629,18 @@
       </c>
       <c r="H218" s="1"/>
       <c r="I218" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D219" s="19">
         <v>1218181.8</v>
@@ -5651,7 +5656,7 @@
       </c>
       <c r="H219" s="1"/>
       <c r="I219" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -5662,7 +5667,7 @@
         <v>0</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="C221" s="1"/>
       <c r="D221" s="12"/>
@@ -5674,10 +5679,10 @@
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B222" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C222" s="1"/>
       <c r="D222" s="12"/>
@@ -5722,7 +5727,7 @@
         <v>1</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C225" s="1"/>
       <c r="D225" s="12"/>
@@ -5764,10 +5769,10 @@
     </row>
     <row r="228" spans="1:9">
       <c r="A228" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C228" s="1"/>
       <c r="D228" s="12"/>
@@ -5829,7 +5834,7 @@
         <v>raw GaAs wafer</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D231" s="12">
         <f>B226</f>
@@ -5840,7 +5845,7 @@
         <v>square meter</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>10</v>
@@ -5850,13 +5855,13 @@
     </row>
     <row r="232" spans="1:9">
       <c r="A232" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B232" s="10" t="s">
         <v>40</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D232" s="19">
         <v>20.222221999999999</v>
@@ -5865,7 +5870,7 @@
         <v>5</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>17</v>
@@ -5875,13 +5880,13 @@
     </row>
     <row r="233" spans="1:9">
       <c r="A233" s="10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B233" s="32" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D233" s="19">
         <v>7.8220000000000007E-5</v>
@@ -5897,18 +5902,18 @@
       </c>
       <c r="H233" s="1"/>
       <c r="I233" s="10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="234" spans="1:9">
       <c r="A234" s="10" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B234" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D234" s="19">
         <v>0.31111109999999997</v>
@@ -5917,7 +5922,7 @@
         <v>5</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G234" s="1" t="s">
         <v>17</v>
@@ -5927,13 +5932,13 @@
     </row>
     <row r="235" spans="1:9">
       <c r="A235" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="B235" s="10" t="s">
         <v>39</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D235" s="19">
         <v>1.77778E-2</v>
@@ -5942,25 +5947,25 @@
         <v>4</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H235" s="1"/>
       <c r="I235" s="1" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D236" s="19">
         <v>2.9629629999999998</v>
@@ -5976,18 +5981,18 @@
       </c>
       <c r="H236" s="1"/>
       <c r="I236" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D237" s="19">
         <v>7.4074074000000003</v>
@@ -6003,18 +6008,18 @@
       </c>
       <c r="H237" s="1"/>
       <c r="I237" s="33" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B238" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D238" s="19">
         <v>-6.0740740999999998</v>
@@ -6030,7 +6035,7 @@
       </c>
       <c r="H238" s="1"/>
       <c r="I238" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -6049,7 +6054,7 @@
         <v>0</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C240" s="1"/>
       <c r="D240" s="12"/>
@@ -6061,10 +6066,10 @@
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B241" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C241" s="1"/>
       <c r="D241" s="12"/>
@@ -6109,7 +6114,7 @@
         <v>1</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C244" s="1"/>
       <c r="D244" s="12"/>
@@ -6151,10 +6156,10 @@
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C247" s="1"/>
       <c r="D247" s="12"/>
@@ -6216,7 +6221,7 @@
         <v>sawing slurry</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D250" s="12">
         <v>1</v>
@@ -6226,7 +6231,7 @@
         <v>kilogram</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>10</v>
@@ -6236,13 +6241,13 @@
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B251" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D251" s="19">
         <v>0.5</v>
@@ -6258,18 +6263,18 @@
       </c>
       <c r="H251" s="1"/>
       <c r="I251" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="10" t="s">
-        <v>165</v>
+        <v>268</v>
       </c>
       <c r="B252" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D252" s="19">
         <v>0.5</v>
@@ -6285,7 +6290,7 @@
       </c>
       <c r="H252" s="1"/>
       <c r="I252" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -6299,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="C254" s="1"/>
       <c r="D254" s="12"/>
@@ -6311,10 +6316,10 @@
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B255" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C255" s="1"/>
       <c r="D255" s="12"/>
@@ -6359,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C258" s="1"/>
       <c r="D258" s="12"/>
@@ -6401,10 +6406,10 @@
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C261" s="1"/>
       <c r="D261" s="12"/>
@@ -6466,7 +6471,7 @@
         <v>etched GaAs wafer</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D264" s="12">
         <f>B259</f>
@@ -6477,7 +6482,7 @@
         <v>square meter</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>10</v>
@@ -6487,13 +6492,13 @@
     </row>
     <row r="265" spans="1:9">
       <c r="A265" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="B265" s="10" t="s">
         <v>43</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D265" s="19">
         <v>1</v>
@@ -6502,7 +6507,7 @@
         <v>20</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>17</v>
@@ -6512,13 +6517,13 @@
     </row>
     <row r="266" spans="1:9">
       <c r="A266" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B266" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D266" s="19">
         <v>88.888889000000006</v>
@@ -6537,13 +6542,13 @@
     </row>
     <row r="267" spans="1:9">
       <c r="A267" s="10" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B267" s="10" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D267" s="19">
         <v>1.2888888999999999</v>
@@ -6559,18 +6564,18 @@
       </c>
       <c r="H267" s="1"/>
       <c r="I267" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="268" spans="1:9">
       <c r="A268" s="10" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B268" s="10" t="s">
         <v>44</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D268" s="19">
         <v>1.0222222000000001</v>
@@ -6586,18 +6591,18 @@
       </c>
       <c r="H268" s="1"/>
       <c r="I268" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="269" spans="1:9">
       <c r="A269" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D269" s="19">
         <v>0.97777780000000003</v>
@@ -6613,18 +6618,18 @@
       </c>
       <c r="H269" s="1"/>
       <c r="I269" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="270" spans="1:9">
       <c r="A270" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D270" s="19">
         <v>1.9851852000000001</v>
@@ -6640,18 +6645,18 @@
       </c>
       <c r="H270" s="1"/>
       <c r="I270" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="271" spans="1:9">
       <c r="A271" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B271" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D271" s="24">
         <v>-0.88888889999999998</v>
@@ -6667,7 +6672,7 @@
       </c>
       <c r="H271" s="1"/>
       <c r="I271" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -6682,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="B273" s="13" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C273" s="1"/>
       <c r="D273" s="12"/>
@@ -6694,10 +6699,10 @@
     </row>
     <row r="274" spans="1:9">
       <c r="A274" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B274" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C274" s="1"/>
       <c r="D274" s="12"/>
@@ -6742,7 +6747,7 @@
         <v>1</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C277" s="1"/>
       <c r="D277" s="12"/>
@@ -6784,10 +6789,10 @@
     </row>
     <row r="280" spans="1:9">
       <c r="A280" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C280" s="1"/>
       <c r="D280" s="12"/>
@@ -6849,7 +6854,7 @@
         <v>pre-polished GaAs wafer</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D283" s="12">
         <f>B278</f>
@@ -6860,7 +6865,7 @@
         <v>square meter</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G283" s="1" t="s">
         <v>10</v>
@@ -6870,13 +6875,13 @@
     </row>
     <row r="284" spans="1:9">
       <c r="A284" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B284" s="10" t="s">
         <v>45</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D284" s="19">
         <v>1</v>
@@ -6885,7 +6890,7 @@
         <v>20</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>17</v>
@@ -6895,13 +6900,13 @@
     </row>
     <row r="285" spans="1:9">
       <c r="A285" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B285" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D285" s="19">
         <v>9.3036999999999998E-3</v>
@@ -6917,18 +6922,18 @@
       </c>
       <c r="H285" s="1"/>
       <c r="I285" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="286" spans="1:9">
       <c r="A286" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="B286" s="10" t="s">
         <v>42</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D286" s="19">
         <v>29.925926</v>
@@ -6937,7 +6942,7 @@
         <v>5</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>17</v>
@@ -6947,13 +6952,13 @@
     </row>
     <row r="287" spans="1:9">
       <c r="A287" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D287" s="19">
         <v>9.7777778000000009</v>
@@ -6969,18 +6974,18 @@
       </c>
       <c r="H287" s="1"/>
       <c r="I287" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="288" spans="1:9">
       <c r="A288" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B288" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D288" s="19">
         <v>-1.4814814999999999</v>
@@ -6996,7 +7001,7 @@
       </c>
       <c r="H288" s="1"/>
       <c r="I288" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="289" spans="1:9">
@@ -7011,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="B290" s="13" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="C290" s="1"/>
       <c r="D290" s="12"/>
@@ -7023,10 +7028,10 @@
     </row>
     <row r="291" spans="1:9">
       <c r="A291" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B291" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C291" s="1"/>
       <c r="D291" s="12"/>
@@ -7071,7 +7076,7 @@
         <v>1</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C294" s="1"/>
       <c r="D294" s="12"/>
@@ -7113,10 +7118,10 @@
     </row>
     <row r="297" spans="1:9">
       <c r="A297" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C297" s="1"/>
       <c r="D297" s="12"/>
@@ -7178,7 +7183,7 @@
         <v>double-polished GaAs wafer</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D300" s="12">
         <f>B295</f>
@@ -7189,7 +7194,7 @@
         <v>square meter</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G300" s="1" t="s">
         <v>10</v>
@@ -7199,13 +7204,13 @@
     </row>
     <row r="301" spans="1:9">
       <c r="A301" s="10" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B301" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D301" s="19">
         <v>1</v>
@@ -7214,7 +7219,7 @@
         <v>20</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G301" s="1" t="s">
         <v>17</v>
@@ -7224,13 +7229,13 @@
     </row>
     <row r="302" spans="1:9">
       <c r="A302" s="10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B302" s="10" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D302" s="19">
         <v>1.8666700000000001E-2</v>
@@ -7246,18 +7251,18 @@
       </c>
       <c r="H302" s="1"/>
       <c r="I302" s="10" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="303" spans="1:9">
       <c r="A303" s="10" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B303" s="10" t="s">
         <v>36</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D303" s="19">
         <v>23.703703999999998</v>
@@ -7266,7 +7271,7 @@
         <v>5</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G303" s="1" t="s">
         <v>17</v>
@@ -7276,13 +7281,13 @@
     </row>
     <row r="304" spans="1:9">
       <c r="A304" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D304" s="19">
         <v>48.888888999999999</v>
@@ -7298,18 +7303,18 @@
       </c>
       <c r="H304" s="1"/>
       <c r="I304" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="305" spans="1:9">
       <c r="A305" s="10" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B305" s="10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D305" s="19">
         <v>-7.4074074000000003</v>
@@ -7325,7 +7330,7 @@
       </c>
       <c r="H305" s="1"/>
       <c r="I305" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="306" spans="1:9">
@@ -7340,7 +7345,7 @@
         <v>0</v>
       </c>
       <c r="B307" s="13" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="C307" s="1"/>
       <c r="D307" s="12"/>
@@ -7352,10 +7357,10 @@
     </row>
     <row r="308" spans="1:9">
       <c r="A308" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B308" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C308" s="1"/>
       <c r="D308" s="12"/>
@@ -7400,7 +7405,7 @@
         <v>1</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C311" s="1"/>
       <c r="D311" s="12"/>
@@ -7442,10 +7447,10 @@
     </row>
     <row r="314" spans="1:9">
       <c r="A314" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C314" s="1"/>
       <c r="D314" s="12"/>
@@ -7507,7 +7512,7 @@
         <v>CMP slurry</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D317" s="12">
         <f>B312</f>
@@ -7518,7 +7523,7 @@
         <v>kilogram</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G317" s="1" t="s">
         <v>10</v>
@@ -7528,13 +7533,13 @@
     </row>
     <row r="318" spans="1:9">
       <c r="A318" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B318" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D318" s="19">
         <v>0.5</v>
@@ -7550,18 +7555,18 @@
       </c>
       <c r="H318" s="1"/>
       <c r="I318" s="10" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="319" spans="1:9">
       <c r="A319" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B319" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D319" s="19">
         <v>0.25</v>
@@ -7580,13 +7585,13 @@
     </row>
     <row r="320" spans="1:9">
       <c r="A320" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D320" s="19">
         <v>0.25</v>
@@ -7619,7 +7624,7 @@
         <v>0</v>
       </c>
       <c r="B322" s="13" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C322" s="1"/>
       <c r="D322" s="12"/>
@@ -7631,10 +7636,10 @@
     </row>
     <row r="323" spans="1:9">
       <c r="A323" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B323" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C323" s="1"/>
       <c r="D323" s="12"/>
@@ -7679,7 +7684,7 @@
         <v>1</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C326" s="1"/>
       <c r="D326" s="12"/>
@@ -7721,10 +7726,10 @@
     </row>
     <row r="329" spans="1:9">
       <c r="A329" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C329" s="1"/>
       <c r="D329" s="12"/>
@@ -7786,7 +7791,7 @@
         <v>GaAs wafer</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D332" s="12">
         <f>B327</f>
@@ -7797,7 +7802,7 @@
         <v>square meter</v>
       </c>
       <c r="F332" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G332" s="1" t="s">
         <v>10</v>
@@ -7807,13 +7812,13 @@
     </row>
     <row r="333" spans="1:9">
       <c r="A333" s="10" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B333" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D333" s="19">
         <v>1</v>
@@ -7822,7 +7827,7 @@
         <v>20</v>
       </c>
       <c r="F333" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G333" s="1" t="s">
         <v>17</v>
@@ -7832,13 +7837,13 @@
     </row>
     <row r="334" spans="1:9">
       <c r="A334" s="10" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B334" s="10" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D334" s="19">
         <v>88.888889000000006</v>
@@ -7857,13 +7862,13 @@
     </row>
     <row r="335" spans="1:9">
       <c r="A335" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D335" s="19">
         <v>5.9555556000000003</v>
@@ -7882,13 +7887,13 @@
     </row>
     <row r="336" spans="1:9">
       <c r="A336" s="10" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B336" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D336" s="19">
         <v>0.1226667</v>
@@ -7904,18 +7909,18 @@
       </c>
       <c r="H336" s="1"/>
       <c r="I336" s="1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="337" spans="1:9">
       <c r="A337" s="10" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B337" s="10" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D337" s="19">
         <v>1.4222E-3</v>
@@ -7931,18 +7936,18 @@
       </c>
       <c r="H337" s="1"/>
       <c r="I337" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="338" spans="1:9">
       <c r="A338" s="10" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B338" s="10" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D338" s="19">
         <v>0.17777780000000001</v>
@@ -7958,18 +7963,18 @@
       </c>
       <c r="H338" s="1"/>
       <c r="I338" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="339" spans="1:9">
       <c r="A339" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D339" s="19">
         <v>8.8888888999999995</v>
@@ -7985,18 +7990,18 @@
       </c>
       <c r="H339" s="1"/>
       <c r="I339" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="340" spans="1:9">
       <c r="A340" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D340" s="19">
         <v>8.8888888999999995</v>
@@ -8012,7 +8017,7 @@
       </c>
       <c r="H340" s="1"/>
       <c r="I340" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="341" spans="1:9">
@@ -8031,7 +8036,7 @@
         <v>0</v>
       </c>
       <c r="B342" s="28" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C342" s="1"/>
       <c r="D342" s="12"/>
@@ -8043,10 +8048,10 @@
     </row>
     <row r="343" spans="1:9">
       <c r="A343" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B343" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C343" s="1"/>
       <c r="D343" s="12"/>
@@ -8061,7 +8066,7 @@
         <v>2</v>
       </c>
       <c r="B344" s="29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C344" s="1"/>
       <c r="D344" s="12"/>
@@ -8076,7 +8081,7 @@
         <v>14</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C345" s="1"/>
       <c r="D345" s="12"/>
@@ -8091,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C346" s="1"/>
       <c r="D346" s="12"/>
@@ -8121,7 +8126,7 @@
         <v>4</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C348" s="1"/>
       <c r="D348" s="12"/>
@@ -8133,10 +8138,10 @@
     </row>
     <row r="349" spans="1:9">
       <c r="A349" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C349" s="1"/>
       <c r="D349" s="12"/>
@@ -8198,7 +8203,7 @@
         <v>trimethyl aluminum 99% pure</v>
       </c>
       <c r="C352" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D352" s="12">
         <f>B347</f>
@@ -8208,7 +8213,7 @@
         <v>5</v>
       </c>
       <c r="F352" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G352" s="1" t="s">
         <v>10</v>
@@ -8218,13 +8223,13 @@
     </row>
     <row r="353" spans="1:9">
       <c r="A353" s="29" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B353" s="29" t="s">
         <v>65</v>
       </c>
       <c r="C353" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D353" s="30">
         <v>2.7530000000000001</v>
@@ -8233,7 +8238,7 @@
         <v>5</v>
       </c>
       <c r="F353" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G353" s="1" t="s">
         <v>17</v>
@@ -8243,13 +8248,13 @@
     </row>
     <row r="354" spans="1:9">
       <c r="A354" s="29" t="s">
-        <v>189</v>
+        <v>275</v>
       </c>
       <c r="B354" s="29" t="s">
         <v>66</v>
       </c>
       <c r="C354" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D354" s="30">
         <v>0.9</v>
@@ -8268,13 +8273,13 @@
     </row>
     <row r="355" spans="1:9">
       <c r="A355" s="34" t="s">
-        <v>209</v>
+        <v>274</v>
       </c>
       <c r="B355" s="34" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="C355" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D355" s="30">
         <v>2.8000000000000001E-2</v>
@@ -8289,19 +8294,17 @@
         <v>17</v>
       </c>
       <c r="H355" s="1"/>
-      <c r="I355" s="10" t="s">
-        <v>210</v>
-      </c>
+      <c r="I355" s="10"/>
     </row>
     <row r="356" spans="1:9">
       <c r="A356" s="29" t="s">
-        <v>190</v>
+        <v>272</v>
       </c>
       <c r="B356" s="29" t="s">
-        <v>67</v>
+        <v>273</v>
       </c>
       <c r="C356" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D356" s="30">
         <v>5.1029999999999998</v>
@@ -8320,13 +8323,13 @@
     </row>
     <row r="357" spans="1:9">
       <c r="A357" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C357" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D357" s="30">
         <v>0.17299999999999999</v>
@@ -8345,13 +8348,13 @@
     </row>
     <row r="358" spans="1:9">
       <c r="A358" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B358" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B358" s="1" t="s">
-        <v>92</v>
-      </c>
       <c r="C358" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D358" s="30">
         <v>-7.57</v>
@@ -8367,7 +8370,7 @@
       </c>
       <c r="H358" s="1"/>
       <c r="I358" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="360" spans="1:9">
@@ -8375,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="B360" s="39" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C360" s="1"/>
       <c r="D360" s="12"/>
@@ -8387,10 +8390,10 @@
     </row>
     <row r="361" spans="1:9">
       <c r="A361" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B361" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C361" s="1"/>
       <c r="D361" s="12"/>
@@ -8420,7 +8423,7 @@
         <v>14</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C363" s="1"/>
       <c r="D363" s="12"/>
@@ -8435,7 +8438,7 @@
         <v>1</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C364" s="1"/>
       <c r="D364" s="12"/>
@@ -8477,10 +8480,10 @@
     </row>
     <row r="367" spans="1:9">
       <c r="A367" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C367" s="1"/>
       <c r="D367" s="12"/>
@@ -8542,7 +8545,7 @@
         <v>methyl aluminum sesquichloride</v>
       </c>
       <c r="C370" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D370" s="48">
         <f>B365</f>
@@ -8552,7 +8555,7 @@
         <v>5</v>
       </c>
       <c r="F370" s="41" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G370" s="41" t="s">
         <v>10</v>
@@ -8562,13 +8565,13 @@
     </row>
     <row r="371" spans="1:9" s="38" customFormat="1">
       <c r="A371" s="49" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B371" s="49" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C371" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D371" s="50">
         <v>1.6E-2</v>
@@ -8587,13 +8590,13 @@
     </row>
     <row r="372" spans="1:9">
       <c r="A372" s="49" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B372" s="49" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C372" s="41" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D372" s="50">
         <v>0.26200000000000001</v>
@@ -8609,18 +8612,18 @@
       </c>
       <c r="H372" s="41"/>
       <c r="I372" s="49" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="373" spans="1:9">
       <c r="A373" s="49" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B373" s="49" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C373" s="41" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D373" s="50">
         <v>0.73699999999999999</v>
@@ -8639,13 +8642,13 @@
     </row>
     <row r="374" spans="1:9">
       <c r="A374" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B374" s="41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C374" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D374" s="50">
         <v>3.0000000000000001E-3</v>
@@ -8664,7 +8667,7 @@
     </row>
     <row r="375" spans="1:9" s="6" customFormat="1">
       <c r="A375" s="49" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B375" s="49"/>
       <c r="C375" s="41"/>
@@ -8675,21 +8678,21 @@
         <v>5</v>
       </c>
       <c r="F375" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G375" s="41" t="s">
         <v>11</v>
       </c>
       <c r="H375" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I375" s="41" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="376" spans="1:9">
       <c r="A376" s="49" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="B376" s="49"/>
       <c r="C376" s="41"/>
@@ -8700,13 +8703,13 @@
         <v>5</v>
       </c>
       <c r="F376" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G376" s="41" t="s">
         <v>11</v>
       </c>
       <c r="H376" s="41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I376" s="41"/>
     </row>
@@ -8715,7 +8718,7 @@
         <v>0</v>
       </c>
       <c r="B378" s="39" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="C378" s="41"/>
       <c r="D378" s="48"/>
@@ -8727,10 +8730,10 @@
     </row>
     <row r="379" spans="1:9">
       <c r="A379" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B379" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C379" s="41"/>
       <c r="D379" s="48"/>
@@ -8745,7 +8748,7 @@
         <v>2</v>
       </c>
       <c r="B380" s="49" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C380" s="41"/>
       <c r="D380" s="48"/>
@@ -8760,7 +8763,7 @@
         <v>14</v>
       </c>
       <c r="B381" s="41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C381" s="41"/>
       <c r="D381" s="48"/>
@@ -8775,7 +8778,7 @@
         <v>1</v>
       </c>
       <c r="B382" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C382" s="41"/>
       <c r="D382" s="48"/>
@@ -8817,10 +8820,10 @@
     </row>
     <row r="385" spans="1:9">
       <c r="A385" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C385" s="41"/>
       <c r="D385" s="48"/>
@@ -8882,7 +8885,7 @@
         <v>trimethyl gallium 99% pure</v>
       </c>
       <c r="C388" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D388" s="48">
         <f>B383</f>
@@ -8892,7 +8895,7 @@
         <v>5</v>
       </c>
       <c r="F388" s="41" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G388" s="41" t="s">
         <v>10</v>
@@ -8902,13 +8905,13 @@
     </row>
     <row r="389" spans="1:9">
       <c r="A389" s="49" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="B389" s="49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C389" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D389" s="50">
         <v>1.5760000000000001</v>
@@ -8917,7 +8920,7 @@
         <v>5</v>
       </c>
       <c r="F389" s="41" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G389" s="41" t="s">
         <v>17</v>
@@ -8927,13 +8930,13 @@
     </row>
     <row r="390" spans="1:9">
       <c r="A390" s="49" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="B390" s="49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C390" s="41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D390" s="50">
         <v>1.012</v>
@@ -8942,7 +8945,7 @@
         <v>5</v>
       </c>
       <c r="F390" s="41" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G390" s="41" t="s">
         <v>17</v>
@@ -8952,13 +8955,13 @@
     </row>
     <row r="391" spans="1:9">
       <c r="A391" s="49" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B391" s="49" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C391" s="41" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D391" s="50">
         <v>0.8</v>
@@ -8974,18 +8977,18 @@
       </c>
       <c r="H391" s="41"/>
       <c r="I391" s="49" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="392" spans="1:9">
       <c r="A392" s="41" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B392" s="41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C392" s="41" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D392" s="50">
         <v>0.112</v>
@@ -9004,13 +9007,13 @@
     </row>
     <row r="393" spans="1:9" s="6" customFormat="1">
       <c r="A393" s="49" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B393" s="49" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C393" s="41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D393" s="50">
         <v>-2.4</v>
@@ -9026,7 +9029,7 @@
       </c>
       <c r="H393" s="41"/>
       <c r="I393" s="41" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="395" spans="1:9">
@@ -9034,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="B395" s="28" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C395" s="1"/>
       <c r="D395" s="12"/>
@@ -9046,10 +9049,10 @@
     </row>
     <row r="396" spans="1:9">
       <c r="A396" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B396" s="41" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="C396" s="1"/>
       <c r="D396" s="12"/>
@@ -9064,7 +9067,7 @@
         <v>2</v>
       </c>
       <c r="B397" s="29" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C397" s="1"/>
       <c r="D397" s="12"/>
@@ -9079,7 +9082,7 @@
         <v>14</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C398" s="1"/>
       <c r="D398" s="12"/>
@@ -9094,7 +9097,7 @@
         <v>1</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C399" s="1"/>
       <c r="D399" s="12"/>
@@ -9136,10 +9139,10 @@
     </row>
     <row r="402" spans="1:9">
       <c r="A402" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C402" s="1"/>
       <c r="D402" s="12"/>
@@ -9201,7 +9204,7 @@
         <v>gallium chloride</v>
       </c>
       <c r="C405" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D405" s="12">
         <f>B400</f>
@@ -9211,7 +9214,7 @@
         <v>5</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G405" s="1" t="s">
         <v>10</v>
@@ -9221,13 +9224,13 @@
     </row>
     <row r="406" spans="1:9">
       <c r="A406" s="29" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B406" s="29" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C406" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D406" s="30">
         <v>0.39600000000000002</v>
@@ -9246,13 +9249,13 @@
     </row>
     <row r="407" spans="1:9">
       <c r="A407" s="29" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B407" s="29" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C407" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D407" s="30">
         <v>0.60399999999999998</v>
@@ -9268,18 +9271,18 @@
       </c>
       <c r="H407" s="1"/>
       <c r="I407" s="10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="408" spans="1:9">
       <c r="A408" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C408" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D408" s="30">
         <v>0.28399999999999997</v>
@@ -9308,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="B410" s="28" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="C410" s="1"/>
       <c r="D410" s="12"/>
@@ -9320,10 +9323,10 @@
     </row>
     <row r="411" spans="1:9">
       <c r="A411" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B411" s="41" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C411" s="1"/>
       <c r="D411" s="12"/>
@@ -9338,7 +9341,7 @@
         <v>2</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C412" s="1"/>
       <c r="D412" s="12"/>
@@ -9353,7 +9356,7 @@
         <v>14</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C413" s="1"/>
       <c r="D413" s="12"/>
@@ -9368,7 +9371,7 @@
         <v>1</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C414" s="1"/>
       <c r="D414" s="12"/>
@@ -9410,10 +9413,10 @@
     </row>
     <row r="417" spans="1:9">
       <c r="A417" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C417" s="1"/>
       <c r="D417" s="12"/>
@@ -9468,14 +9471,14 @@
     <row r="420" spans="1:9">
       <c r="A420" s="1" t="str">
         <f>B410</f>
-        <v>photovoltaic installation, GaAs</v>
+        <v>photovoltaic installation, 0.28kWp, GaAs</v>
       </c>
       <c r="B420" s="1" t="str">
         <f>B412</f>
         <v>photovoltaic installation, GaAs</v>
       </c>
       <c r="C420" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D420" s="12">
         <f>B415</f>
@@ -9486,25 +9489,25 @@
         <v>unit</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G420" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H420" s="1"/>
       <c r="I420" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="421" spans="1:9">
       <c r="A421" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C421" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D421" s="12">
         <v>0.23</v>
@@ -9523,13 +9526,13 @@
     </row>
     <row r="422" spans="1:9">
       <c r="A422" s="29" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B422" s="29" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C422" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D422" s="12">
         <f>2.4*0.28/3</f>
@@ -9546,18 +9549,18 @@
       </c>
       <c r="H422" s="1"/>
       <c r="I422" s="10" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
     </row>
     <row r="423" spans="1:9">
       <c r="A423" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C423" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D423" s="12">
         <v>21.428999999999998</v>
@@ -9576,13 +9579,13 @@
     </row>
     <row r="424" spans="1:9">
       <c r="A424" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="C424" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D424" s="12">
         <v>1</v>
@@ -9601,13 +9604,13 @@
     </row>
     <row r="425" spans="1:9">
       <c r="A425" s="29" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B425" s="29" t="s">
         <v>33</v>
       </c>
       <c r="C425" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D425" s="42">
         <v>22.071000000000002</v>
@@ -9629,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="B427" s="28" t="s">
-        <v>230</v>
+        <v>276</v>
       </c>
       <c r="C427" s="1"/>
       <c r="D427" s="12"/>
@@ -9641,10 +9644,10 @@
     </row>
     <row r="428" spans="1:9">
       <c r="A428" s="41" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="B428" s="41" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C428" s="1"/>
       <c r="D428" s="12"/>
@@ -9659,7 +9662,7 @@
         <v>2</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>121</v>
+        <v>276</v>
       </c>
       <c r="C429" s="1"/>
       <c r="D429" s="12"/>
@@ -9674,7 +9677,7 @@
         <v>14</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C430" s="1"/>
       <c r="D430" s="12"/>
@@ -9689,7 +9692,7 @@
         <v>1</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C431" s="1"/>
       <c r="D431" s="12"/>
@@ -9731,10 +9734,10 @@
     </row>
     <row r="434" spans="1:9">
       <c r="A434" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="C434" s="1"/>
       <c r="D434" s="12"/>
@@ -9789,14 +9792,14 @@
     <row r="437" spans="1:9">
       <c r="A437" s="1" t="str">
         <f>B427</f>
-        <v xml:space="preserve">electricity production, photovoltaic, GaAs </v>
+        <v xml:space="preserve">electricity production, photovoltaic, 0.28kWp, GaAs </v>
       </c>
       <c r="B437" s="1" t="str">
         <f>B429</f>
-        <v>electricity, low voltage</v>
+        <v xml:space="preserve">electricity production, photovoltaic, 0.28kWp, GaAs </v>
       </c>
       <c r="C437" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D437" s="12">
         <f>B432</f>
@@ -9806,7 +9809,7 @@
         <v>16</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G437" s="1" t="s">
         <v>10</v>
@@ -9816,13 +9819,13 @@
     </row>
     <row r="438" spans="1:9">
       <c r="A438" s="29" t="s">
-        <v>231</v>
+        <v>277</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="C438" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D438" s="40">
         <f>1/0.28/1700/30/0.85/100</f>
@@ -9832,25 +9835,25 @@
         <v>4</v>
       </c>
       <c r="F438" s="1" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="G438" s="1" t="s">
         <v>17</v>
       </c>
       <c r="H438" s="1"/>
       <c r="I438" s="10" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="439" spans="1:9">
       <c r="A439" s="43" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="B439" s="43" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="C439" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D439" s="47">
         <f>0.00579493511839/0.0000135395680336215*D438</f>
@@ -9867,18 +9870,18 @@
       </c>
       <c r="H439" s="43"/>
       <c r="I439" s="43" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="440" spans="1:9">
       <c r="A440" s="44" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B440" s="43" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C440" s="43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D440" s="45">
         <f>-0.00000579493511839/0.0000135395680336215*D438</f>
@@ -9898,7 +9901,7 @@
     </row>
     <row r="441" spans="1:9">
       <c r="A441" s="43" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B441" s="43"/>
       <c r="C441" s="43"/>
@@ -9916,13 +9919,13 @@
         <v>11</v>
       </c>
       <c r="H441" s="43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I441" s="43"/>
     </row>
     <row r="442" spans="1:9">
       <c r="A442" s="44" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="B442" s="43"/>
       <c r="C442" s="43"/>
@@ -9931,7 +9934,7 @@
         <v>0.23428399841819003</v>
       </c>
       <c r="E442" s="43" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F442" s="43" t="s">
         <v>11</v>
@@ -9940,7 +9943,7 @@
         <v>11</v>
       </c>
       <c r="H442" s="43" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="I442" s="46"/>
     </row>

--- a/premise/data/additional_inventories/lci-PV-GaAs.xlsx
+++ b/premise/data/additional_inventories/lci-PV-GaAs.xlsx
@@ -1,15 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10714"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EE82CCC-E568-4117-B134-95913218A925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58ADFB8A-7DB2-CB41-B6D9-E02529164ED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3615" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33960" yWindow="-420" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV_GaAs" sheetId="3" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PV_GaAs!$A$1:$I$442</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -846,9 +849,6 @@
     <t>hydrogen, gaseous, low pressure</t>
   </si>
   <si>
-    <t>unsaturated hydrocarbons production, steam cracking operation, average</t>
-  </si>
-  <si>
     <t>market for xylene, mixed</t>
   </si>
   <si>
@@ -865,6 +865,9 @@
   </si>
   <si>
     <t>photovoltaic installation, 0.28kWp, GaAs</t>
+  </si>
+  <si>
+    <t>market for hydrogen, gaseous, low pressure</t>
   </si>
 </sst>
 </file>
@@ -874,7 +877,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1020,7 +1023,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1110,8 +1113,7 @@
     <xf numFmtId="11" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1125,11 +1127,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1414,26 +1412,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I442"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A409" zoomScale="108" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B437" sqref="B437"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="B218" sqref="B218"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="44.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1441,7 +1440,9 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="2" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
@@ -1452,7 +1453,7 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1467,11 +1468,11 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C6" s="1"/>
@@ -1482,7 +1483,7 @@
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1497,7 +1498,7 @@
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1512,7 +1513,7 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>1</v>
       </c>
@@ -1527,7 +1528,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1542,7 +1543,7 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
@@ -1557,7 +1558,7 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>242</v>
       </c>
@@ -1572,7 +1573,7 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
@@ -1585,7 +1586,7 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1614,7 +1615,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="str">
         <f>B5</f>
         <v>coating, drying, optical lithography</v>
@@ -1645,7 +1646,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>263</v>
       </c>
@@ -1670,7 +1671,7 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>85</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>75</v>
       </c>
@@ -1722,7 +1723,7 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>105</v>
       </c>
@@ -1749,7 +1750,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>79</v>
       </c>
@@ -1774,7 +1775,7 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>81</v>
       </c>
@@ -1801,7 +1802,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>84</v>
       </c>
@@ -1826,7 +1827,7 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>89</v>
       </c>
@@ -1849,7 +1850,7 @@
       </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>90</v>
       </c>
@@ -1876,7 +1877,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="25" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1891,11 +1893,11 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="41" t="s">
+    <row r="27" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C27" s="1"/>
@@ -1906,7 +1908,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>2</v>
       </c>
@@ -1921,7 +1923,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>14</v>
       </c>
@@ -1936,7 +1938,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>1</v>
       </c>
@@ -1951,7 +1953,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1966,7 +1968,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>4</v>
       </c>
@@ -1981,7 +1983,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>242</v>
       </c>
@@ -1996,7 +1998,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
@@ -2009,7 +2011,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -2038,7 +2040,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="str">
         <f>B26</f>
         <v>electroplating</v>
@@ -2065,8 +2067,8 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="41" t="s">
+    <row r="37" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -2090,7 +2092,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>98</v>
       </c>
@@ -2115,7 +2117,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>99</v>
       </c>
@@ -2140,7 +2142,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>81</v>
       </c>
@@ -2167,7 +2169,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>84</v>
       </c>
@@ -2192,7 +2194,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>100</v>
       </c>
@@ -2215,7 +2217,7 @@
       </c>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>100</v>
       </c>
@@ -2238,7 +2240,7 @@
       </c>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>203</v>
       </c>
@@ -2263,7 +2265,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>90</v>
       </c>
@@ -2290,7 +2292,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="46" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
@@ -2305,11 +2308,11 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="41" t="s">
+    <row r="48" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B48" s="41" t="s">
+      <c r="B48" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C48" s="1"/>
@@ -2320,7 +2323,7 @@
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>2</v>
       </c>
@@ -2335,7 +2338,7 @@
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>14</v>
       </c>
@@ -2350,7 +2353,7 @@
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>1</v>
       </c>
@@ -2365,7 +2368,7 @@
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>8</v>
       </c>
@@ -2380,7 +2383,7 @@
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>4</v>
       </c>
@@ -2395,7 +2398,7 @@
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>242</v>
       </c>
@@ -2410,7 +2413,7 @@
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
@@ -2423,7 +2426,7 @@
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>7</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="str">
         <f>B47</f>
         <v>wet etching</v>
@@ -2479,7 +2482,7 @@
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>23</v>
       </c>
@@ -2504,7 +2507,7 @@
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>102</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>81</v>
       </c>
@@ -2558,7 +2561,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>84</v>
       </c>
@@ -2583,7 +2586,7 @@
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>90</v>
       </c>
@@ -2610,7 +2613,8 @@
         <v>92</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>0</v>
       </c>
@@ -2625,11 +2629,11 @@
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
     </row>
-    <row r="65" spans="1:9">
-      <c r="A65" s="41" t="s">
+    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B65" s="41" t="s">
+      <c r="B65" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C65" s="1"/>
@@ -2640,7 +2644,7 @@
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>2</v>
       </c>
@@ -2655,7 +2659,7 @@
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>14</v>
       </c>
@@ -2670,7 +2674,7 @@
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>1</v>
       </c>
@@ -2685,7 +2689,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>8</v>
       </c>
@@ -2700,7 +2704,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>4</v>
       </c>
@@ -2715,7 +2719,7 @@
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>242</v>
       </c>
@@ -2730,7 +2734,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
@@ -2743,7 +2747,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>7</v>
       </c>
@@ -2772,7 +2776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="str">
         <f>B64</f>
         <v>metal organic vapor phase epitaxy (MOVPE)</v>
@@ -2799,7 +2803,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
@@ -2824,9 +2828,9 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>270</v>
@@ -2851,7 +2855,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>104</v>
       </c>
@@ -2876,7 +2880,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>99</v>
       </c>
@@ -2903,7 +2907,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="29" t="s">
         <v>266</v>
       </c>
@@ -2928,7 +2932,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>108</v>
       </c>
@@ -2953,7 +2957,7 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>105</v>
       </c>
@@ -2980,7 +2984,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>84</v>
       </c>
@@ -3005,7 +3009,7 @@
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>90</v>
       </c>
@@ -3032,7 +3036,8 @@
         <v>110</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>0</v>
       </c>
@@ -3047,11 +3052,11 @@
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
     </row>
-    <row r="86" spans="1:9">
-      <c r="A86" s="41" t="s">
+    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B86" s="41" t="s">
+      <c r="B86" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C86" s="1"/>
@@ -3062,7 +3067,7 @@
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>2</v>
       </c>
@@ -3077,7 +3082,7 @@
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>14</v>
       </c>
@@ -3092,7 +3097,7 @@
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>1</v>
       </c>
@@ -3107,7 +3112,7 @@
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>8</v>
       </c>
@@ -3122,7 +3127,7 @@
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>4</v>
       </c>
@@ -3137,7 +3142,7 @@
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>242</v>
       </c>
@@ -3152,7 +3157,7 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>6</v>
       </c>
@@ -3165,7 +3170,7 @@
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>7</v>
       </c>
@@ -3194,7 +3199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="str">
         <f>B85</f>
         <v>epitaxial lift-off (ELO)</v>
@@ -3223,7 +3228,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>246</v>
       </c>
@@ -3248,7 +3253,7 @@
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>111</v>
       </c>
@@ -3275,7 +3280,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>85</v>
       </c>
@@ -3302,7 +3307,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>75</v>
       </c>
@@ -3327,7 +3332,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>114</v>
       </c>
@@ -3354,7 +3359,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="10" t="s">
         <v>262</v>
       </c>
@@ -3379,7 +3384,7 @@
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>115</v>
       </c>
@@ -3406,7 +3411,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>121</v>
       </c>
@@ -3433,7 +3438,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>90</v>
       </c>
@@ -3460,7 +3465,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="14"/>
       <c r="B105" s="14"/>
       <c r="C105" s="14"/>
@@ -3471,7 +3476,7 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>0</v>
       </c>
@@ -3486,11 +3491,11 @@
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
     </row>
-    <row r="107" spans="1:9">
-      <c r="A107" s="41" t="s">
+    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B107" s="41" t="s">
+      <c r="B107" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C107" s="1"/>
@@ -3501,7 +3506,7 @@
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>2</v>
       </c>
@@ -3516,7 +3521,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>14</v>
       </c>
@@ -3531,7 +3536,7 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>1</v>
       </c>
@@ -3546,7 +3551,7 @@
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>8</v>
       </c>
@@ -3561,7 +3566,7 @@
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>4</v>
       </c>
@@ -3576,7 +3581,7 @@
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>242</v>
       </c>
@@ -3591,7 +3596,7 @@
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>6</v>
       </c>
@@ -3604,7 +3609,7 @@
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>7</v>
       </c>
@@ -3633,7 +3638,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="str">
         <f>B106</f>
         <v>polycrystalline GaAs boule production</v>
@@ -3662,7 +3667,7 @@
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>251</v>
       </c>
@@ -3687,7 +3692,7 @@
       <c r="H117" s="1"/>
       <c r="I117" s="10"/>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>252</v>
       </c>
@@ -3712,7 +3717,7 @@
       <c r="H118" s="1"/>
       <c r="I118" s="10"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="10" t="s">
         <v>124</v>
       </c>
@@ -3739,7 +3744,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>121</v>
       </c>
@@ -3766,7 +3771,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="10" t="s">
         <v>128</v>
       </c>
@@ -3793,10 +3798,10 @@
         <v>126</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="C122" s="6"/>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>0</v>
       </c>
@@ -3811,11 +3816,11 @@
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
     </row>
-    <row r="124" spans="1:9">
-      <c r="A124" s="41" t="s">
+    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B124" s="41" t="s">
+      <c r="B124" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C124" s="1"/>
@@ -3826,7 +3831,7 @@
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>2</v>
       </c>
@@ -3841,7 +3846,7 @@
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>14</v>
       </c>
@@ -3856,7 +3861,7 @@
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>1</v>
       </c>
@@ -3871,7 +3876,7 @@
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>8</v>
       </c>
@@ -3886,7 +3891,7 @@
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>4</v>
       </c>
@@ -3901,7 +3906,7 @@
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>242</v>
       </c>
@@ -3916,7 +3921,7 @@
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>6</v>
       </c>
@@ -3929,7 +3934,7 @@
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>7</v>
       </c>
@@ -3958,7 +3963,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="str">
         <f>B123</f>
         <v>7N gallium production</v>
@@ -3986,7 +3991,7 @@
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="10" t="s">
         <v>130</v>
       </c>
@@ -4013,7 +4018,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>121</v>
       </c>
@@ -4040,13 +4045,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="8"/>
       <c r="B136" s="8"/>
       <c r="C136" s="6"/>
       <c r="D136" s="20"/>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="s">
         <v>0</v>
       </c>
@@ -4061,11 +4066,11 @@
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
     </row>
-    <row r="138" spans="1:9">
-      <c r="A138" s="41" t="s">
+    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B138" s="41" t="s">
+      <c r="B138" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C138" s="1"/>
@@ -4076,7 +4081,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>2</v>
       </c>
@@ -4091,7 +4096,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>14</v>
       </c>
@@ -4106,7 +4111,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>1</v>
       </c>
@@ -4121,7 +4126,7 @@
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>8</v>
       </c>
@@ -4136,7 +4141,7 @@
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>4</v>
       </c>
@@ -4151,7 +4156,7 @@
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>242</v>
       </c>
@@ -4166,7 +4171,7 @@
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>6</v>
       </c>
@@ -4179,7 +4184,7 @@
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>7</v>
       </c>
@@ -4208,7 +4213,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="str">
         <f>B137</f>
         <v>7N arsenic production</v>
@@ -4236,7 +4241,7 @@
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="10" t="s">
         <v>108</v>
       </c>
@@ -4263,9 +4268,9 @@
         <v>133</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>270</v>
@@ -4290,7 +4295,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" s="10" t="s">
         <v>135</v>
       </c>
@@ -4317,7 +4322,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>121</v>
       </c>
@@ -4344,7 +4349,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2" t="s">
         <v>0</v>
       </c>
@@ -4359,11 +4365,11 @@
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
     </row>
-    <row r="154" spans="1:9">
-      <c r="A154" s="41" t="s">
+    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B154" s="41" t="s">
+      <c r="B154" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C154" s="1"/>
@@ -4374,7 +4380,7 @@
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>2</v>
       </c>
@@ -4389,7 +4395,7 @@
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>14</v>
       </c>
@@ -4404,7 +4410,7 @@
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>1</v>
       </c>
@@ -4419,7 +4425,7 @@
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>8</v>
       </c>
@@ -4434,7 +4440,7 @@
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>4</v>
       </c>
@@ -4449,7 +4455,7 @@
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>242</v>
       </c>
@@ -4464,7 +4470,7 @@
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2" t="s">
         <v>6</v>
       </c>
@@ -4477,7 +4483,7 @@
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>7</v>
       </c>
@@ -4506,7 +4512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="str">
         <f>B153</f>
         <v>single-crystal GaAs boule production</v>
@@ -4534,7 +4540,7 @@
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>250</v>
       </c>
@@ -4559,7 +4565,7 @@
       <c r="H164" s="1"/>
       <c r="I164" s="10"/>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="10" t="s">
         <v>140</v>
       </c>
@@ -4586,7 +4592,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="10" t="s">
         <v>124</v>
       </c>
@@ -4613,7 +4619,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>121</v>
       </c>
@@ -4640,7 +4646,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="10" t="s">
         <v>128</v>
       </c>
@@ -4667,7 +4673,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="10" t="s">
         <v>128</v>
       </c>
@@ -4694,7 +4700,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="10" t="s">
         <v>128</v>
       </c>
@@ -4721,14 +4727,14 @@
         <v>144</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="21"/>
       <c r="E171" s="11"/>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="s">
         <v>0</v>
       </c>
@@ -4743,11 +4749,11 @@
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
     </row>
-    <row r="173" spans="1:9">
-      <c r="A173" s="41" t="s">
+    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B173" s="41" t="s">
+      <c r="B173" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C173" s="1"/>
@@ -4758,7 +4764,7 @@
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>2</v>
       </c>
@@ -4773,7 +4779,7 @@
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>14</v>
       </c>
@@ -4788,7 +4794,7 @@
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>1</v>
       </c>
@@ -4803,7 +4809,7 @@
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>8</v>
       </c>
@@ -4818,7 +4824,7 @@
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>4</v>
       </c>
@@ -4833,7 +4839,7 @@
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>242</v>
       </c>
@@ -4848,7 +4854,7 @@
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="s">
         <v>6</v>
       </c>
@@ -4861,7 +4867,7 @@
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>7</v>
       </c>
@@ -4890,7 +4896,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="str">
         <f>B172</f>
         <v>GaAs ingot production - x-ray, cropping, grinding notch</v>
@@ -4919,7 +4925,7 @@
       <c r="H182" s="1"/>
       <c r="I182" s="1"/>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>253</v>
       </c>
@@ -4944,7 +4950,7 @@
       <c r="H183" s="1"/>
       <c r="I183" s="10"/>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="10" t="s">
         <v>145</v>
       </c>
@@ -4971,7 +4977,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
         <v>255</v>
       </c>
@@ -4996,7 +5002,7 @@
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
         <v>121</v>
       </c>
@@ -5023,7 +5029,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
         <v>121</v>
       </c>
@@ -5050,7 +5056,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>121</v>
       </c>
@@ -5077,7 +5083,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="10" t="s">
         <v>128</v>
       </c>
@@ -5104,14 +5110,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="8"/>
       <c r="B190" s="8"/>
       <c r="C190" s="9"/>
       <c r="D190" s="22"/>
       <c r="E190" s="8"/>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>0</v>
       </c>
@@ -5126,11 +5132,11 @@
       <c r="H191" s="1"/>
       <c r="I191" s="1"/>
     </row>
-    <row r="192" spans="1:9">
-      <c r="A192" s="41" t="s">
+    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B192" s="41" t="s">
+      <c r="B192" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C192" s="1"/>
@@ -5141,7 +5147,7 @@
       <c r="H192" s="1"/>
       <c r="I192" s="1"/>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>2</v>
       </c>
@@ -5156,7 +5162,7 @@
       <c r="H193" s="1"/>
       <c r="I193" s="1"/>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>14</v>
       </c>
@@ -5171,7 +5177,7 @@
       <c r="H194" s="1"/>
       <c r="I194" s="1"/>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="1" t="s">
         <v>1</v>
       </c>
@@ -5186,7 +5192,7 @@
       <c r="H195" s="1"/>
       <c r="I195" s="1"/>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="1" t="s">
         <v>8</v>
       </c>
@@ -5201,7 +5207,7 @@
       <c r="H196" s="1"/>
       <c r="I196" s="1"/>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="1" t="s">
         <v>4</v>
       </c>
@@ -5216,7 +5222,7 @@
       <c r="H197" s="1"/>
       <c r="I197" s="1"/>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="1" t="s">
         <v>242</v>
       </c>
@@ -5231,7 +5237,7 @@
       <c r="H198" s="1"/>
       <c r="I198" s="1"/>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2" t="s">
         <v>6</v>
       </c>
@@ -5244,7 +5250,7 @@
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>7</v>
       </c>
@@ -5273,7 +5279,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="1" t="str">
         <f>B191</f>
         <v>diamond saw production</v>
@@ -5302,7 +5308,7 @@
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="10" t="s">
         <v>152</v>
       </c>
@@ -5329,7 +5335,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="1" t="s">
         <v>256</v>
       </c>
@@ -5354,7 +5360,7 @@
       <c r="H203" s="1"/>
       <c r="I203" s="10"/>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="1" t="s">
         <v>121</v>
       </c>
@@ -5381,13 +5387,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="8"/>
       <c r="B205" s="8"/>
       <c r="C205" s="6"/>
       <c r="D205" s="20"/>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="s">
         <v>0</v>
       </c>
@@ -5402,11 +5408,11 @@
       <c r="H206" s="1"/>
       <c r="I206" s="1"/>
     </row>
-    <row r="207" spans="1:9">
-      <c r="A207" s="41" t="s">
+    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A207" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B207" s="41" t="s">
+      <c r="B207" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C207" s="1"/>
@@ -5417,7 +5423,7 @@
       <c r="H207" s="1"/>
       <c r="I207" s="1"/>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="1" t="s">
         <v>2</v>
       </c>
@@ -5432,7 +5438,7 @@
       <c r="H208" s="1"/>
       <c r="I208" s="1"/>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="1" t="s">
         <v>14</v>
       </c>
@@ -5447,7 +5453,7 @@
       <c r="H209" s="1"/>
       <c r="I209" s="1"/>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="1" t="s">
         <v>1</v>
       </c>
@@ -5462,7 +5468,7 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="1" t="s">
         <v>8</v>
       </c>
@@ -5477,7 +5483,7 @@
       <c r="H211" s="1"/>
       <c r="I211" s="1"/>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="1" t="s">
         <v>4</v>
       </c>
@@ -5492,7 +5498,7 @@
       <c r="H212" s="1"/>
       <c r="I212" s="1"/>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="1" t="s">
         <v>242</v>
       </c>
@@ -5507,7 +5513,7 @@
       <c r="H213" s="1"/>
       <c r="I213" s="1"/>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="s">
         <v>6</v>
       </c>
@@ -5520,7 +5526,7 @@
       <c r="H214" s="1"/>
       <c r="I214" s="1"/>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>7</v>
       </c>
@@ -5549,7 +5555,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="1" t="str">
         <f>B206</f>
         <v>synthetic diamond production</v>
@@ -5578,7 +5584,7 @@
       <c r="H216" s="1"/>
       <c r="I216" s="1"/>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="35" t="s">
         <v>205</v>
       </c>
@@ -5605,9 +5611,9 @@
         <v>206</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="1" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>270</v>
@@ -5632,7 +5638,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="1" t="s">
         <v>121</v>
       </c>
@@ -5659,10 +5665,10 @@
         <v>132</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="7"/>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="s">
         <v>0</v>
       </c>
@@ -5677,11 +5683,11 @@
       <c r="H221" s="1"/>
       <c r="I221" s="1"/>
     </row>
-    <row r="222" spans="1:9">
-      <c r="A222" s="41" t="s">
+    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A222" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B222" s="41" t="s">
+      <c r="B222" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C222" s="1"/>
@@ -5692,7 +5698,7 @@
       <c r="H222" s="1"/>
       <c r="I222" s="1"/>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="1" t="s">
         <v>2</v>
       </c>
@@ -5707,7 +5713,7 @@
       <c r="H223" s="1"/>
       <c r="I223" s="1"/>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="1" t="s">
         <v>14</v>
       </c>
@@ -5722,7 +5728,7 @@
       <c r="H224" s="1"/>
       <c r="I224" s="1"/>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="1" t="s">
         <v>1</v>
       </c>
@@ -5737,7 +5743,7 @@
       <c r="H225" s="1"/>
       <c r="I225" s="1"/>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="1" t="s">
         <v>8</v>
       </c>
@@ -5752,7 +5758,7 @@
       <c r="H226" s="1"/>
       <c r="I226" s="1"/>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="1" t="s">
         <v>4</v>
       </c>
@@ -5767,7 +5773,7 @@
       <c r="H227" s="1"/>
       <c r="I227" s="1"/>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="1" t="s">
         <v>242</v>
       </c>
@@ -5782,7 +5788,7 @@
       <c r="H228" s="1"/>
       <c r="I228" s="1"/>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2" t="s">
         <v>6</v>
       </c>
@@ -5795,7 +5801,7 @@
       <c r="H229" s="1"/>
       <c r="I229" s="1"/>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>7</v>
       </c>
@@ -5824,7 +5830,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="1" t="str">
         <f>B221</f>
         <v>raw GaAs wafer production</v>
@@ -5853,7 +5859,7 @@
       <c r="H231" s="1"/>
       <c r="I231" s="1"/>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="1" t="s">
         <v>254</v>
       </c>
@@ -5878,7 +5884,7 @@
       <c r="H232" s="1"/>
       <c r="I232" s="10"/>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="10" t="s">
         <v>145</v>
       </c>
@@ -5905,7 +5911,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="10" t="s">
         <v>258</v>
       </c>
@@ -5930,7 +5936,7 @@
       <c r="H234" s="1"/>
       <c r="I234" s="1"/>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="1" t="s">
         <v>255</v>
       </c>
@@ -5957,7 +5963,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="1" t="s">
         <v>121</v>
       </c>
@@ -5984,7 +5990,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
         <v>121</v>
       </c>
@@ -6011,7 +6017,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="10" t="s">
         <v>128</v>
       </c>
@@ -6038,7 +6044,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="5"/>
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
@@ -6049,7 +6055,7 @@
       <c r="H239" s="5"/>
       <c r="I239" s="5"/>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>0</v>
       </c>
@@ -6064,11 +6070,11 @@
       <c r="H240" s="1"/>
       <c r="I240" s="1"/>
     </row>
-    <row r="241" spans="1:9">
-      <c r="A241" s="41" t="s">
+    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A241" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B241" s="41" t="s">
+      <c r="B241" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C241" s="1"/>
@@ -6079,7 +6085,7 @@
       <c r="H241" s="1"/>
       <c r="I241" s="1"/>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="1" t="s">
         <v>2</v>
       </c>
@@ -6094,7 +6100,7 @@
       <c r="H242" s="1"/>
       <c r="I242" s="1"/>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="1" t="s">
         <v>14</v>
       </c>
@@ -6109,7 +6115,7 @@
       <c r="H243" s="1"/>
       <c r="I243" s="1"/>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>1</v>
       </c>
@@ -6124,7 +6130,7 @@
       <c r="H244" s="1"/>
       <c r="I244" s="1"/>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="1" t="s">
         <v>8</v>
       </c>
@@ -6139,7 +6145,7 @@
       <c r="H245" s="1"/>
       <c r="I245" s="1"/>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="1" t="s">
         <v>4</v>
       </c>
@@ -6154,7 +6160,7 @@
       <c r="H246" s="1"/>
       <c r="I246" s="1"/>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="1" t="s">
         <v>242</v>
       </c>
@@ -6169,7 +6175,7 @@
       <c r="H247" s="1"/>
       <c r="I247" s="1"/>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
         <v>6</v>
       </c>
@@ -6182,7 +6188,7 @@
       <c r="H248" s="1"/>
       <c r="I248" s="1"/>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>7</v>
       </c>
@@ -6211,7 +6217,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="1" t="str">
         <f>B240</f>
         <v>sawing slurry production</v>
@@ -6239,7 +6245,7 @@
       <c r="H250" s="1"/>
       <c r="I250" s="1"/>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="10" t="s">
         <v>157</v>
       </c>
@@ -6266,7 +6272,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="10" t="s">
         <v>268</v>
       </c>
@@ -6293,13 +6299,13 @@
         <v>160</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="B253" s="8"/>
       <c r="C253" s="8"/>
       <c r="D253" s="22"/>
       <c r="E253" s="8"/>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2" t="s">
         <v>0</v>
       </c>
@@ -6314,11 +6320,11 @@
       <c r="H254" s="1"/>
       <c r="I254" s="1"/>
     </row>
-    <row r="255" spans="1:9">
-      <c r="A255" s="41" t="s">
+    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A255" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B255" s="41" t="s">
+      <c r="B255" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C255" s="1"/>
@@ -6329,7 +6335,7 @@
       <c r="H255" s="1"/>
       <c r="I255" s="1"/>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="1" t="s">
         <v>2</v>
       </c>
@@ -6344,7 +6350,7 @@
       <c r="H256" s="1"/>
       <c r="I256" s="1"/>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="1" t="s">
         <v>14</v>
       </c>
@@ -6359,7 +6365,7 @@
       <c r="H257" s="1"/>
       <c r="I257" s="1"/>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="1" t="s">
         <v>1</v>
       </c>
@@ -6374,7 +6380,7 @@
       <c r="H258" s="1"/>
       <c r="I258" s="1"/>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="1" t="s">
         <v>8</v>
       </c>
@@ -6389,7 +6395,7 @@
       <c r="H259" s="1"/>
       <c r="I259" s="1"/>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="1" t="s">
         <v>4</v>
       </c>
@@ -6404,7 +6410,7 @@
       <c r="H260" s="1"/>
       <c r="I260" s="1"/>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="1" t="s">
         <v>242</v>
       </c>
@@ -6419,7 +6425,7 @@
       <c r="H261" s="1"/>
       <c r="I261" s="1"/>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2" t="s">
         <v>6</v>
       </c>
@@ -6432,7 +6438,7 @@
       <c r="H262" s="1"/>
       <c r="I262" s="1"/>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>7</v>
       </c>
@@ -6461,7 +6467,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="1" t="str">
         <f>B254</f>
         <v>etched GaAs wafer production - cleaning, etching</v>
@@ -6490,7 +6496,7 @@
       <c r="H264" s="1"/>
       <c r="I264" s="1"/>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="1" t="s">
         <v>257</v>
       </c>
@@ -6515,7 +6521,7 @@
       <c r="H265" s="1"/>
       <c r="I265" s="10"/>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="10" t="s">
         <v>163</v>
       </c>
@@ -6540,7 +6546,7 @@
       <c r="H266" s="1"/>
       <c r="I266" s="10"/>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="10" t="s">
         <v>171</v>
       </c>
@@ -6567,7 +6573,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="10" t="s">
         <v>111</v>
       </c>
@@ -6594,7 +6600,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="1" t="s">
         <v>121</v>
       </c>
@@ -6621,7 +6627,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="1" t="s">
         <v>121</v>
       </c>
@@ -6648,7 +6654,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" s="10" t="s">
         <v>128</v>
       </c>
@@ -6675,14 +6681,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="8"/>
       <c r="B272" s="8"/>
       <c r="C272" s="9"/>
       <c r="D272" s="22"/>
       <c r="E272" s="8"/>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2" t="s">
         <v>0</v>
       </c>
@@ -6697,11 +6703,11 @@
       <c r="H273" s="1"/>
       <c r="I273" s="1"/>
     </row>
-    <row r="274" spans="1:9">
-      <c r="A274" s="41" t="s">
+    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A274" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B274" s="41" t="s">
+      <c r="B274" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C274" s="1"/>
@@ -6712,7 +6718,7 @@
       <c r="H274" s="1"/>
       <c r="I274" s="1"/>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
         <v>2</v>
       </c>
@@ -6727,7 +6733,7 @@
       <c r="H275" s="1"/>
       <c r="I275" s="1"/>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
         <v>14</v>
       </c>
@@ -6742,7 +6748,7 @@
       <c r="H276" s="1"/>
       <c r="I276" s="1"/>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
         <v>1</v>
       </c>
@@ -6757,7 +6763,7 @@
       <c r="H277" s="1"/>
       <c r="I277" s="1"/>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="1" t="s">
         <v>8</v>
       </c>
@@ -6772,7 +6778,7 @@
       <c r="H278" s="1"/>
       <c r="I278" s="1"/>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="1" t="s">
         <v>4</v>
       </c>
@@ -6787,7 +6793,7 @@
       <c r="H279" s="1"/>
       <c r="I279" s="1"/>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="1" t="s">
         <v>242</v>
       </c>
@@ -6802,7 +6808,7 @@
       <c r="H280" s="1"/>
       <c r="I280" s="1"/>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2" t="s">
         <v>6</v>
       </c>
@@ -6815,7 +6821,7 @@
       <c r="H281" s="1"/>
       <c r="I281" s="1"/>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>7</v>
       </c>
@@ -6844,7 +6850,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="1" t="str">
         <f>B273</f>
         <v>pre-polished GaAs wafer production</v>
@@ -6873,7 +6879,7 @@
       <c r="H283" s="1"/>
       <c r="I283" s="1"/>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="1" t="s">
         <v>259</v>
       </c>
@@ -6898,7 +6904,7 @@
       <c r="H284" s="1"/>
       <c r="I284" s="10"/>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="10" t="s">
         <v>114</v>
       </c>
@@ -6925,7 +6931,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="1" t="s">
         <v>258</v>
       </c>
@@ -6950,7 +6956,7 @@
       <c r="H286" s="1"/>
       <c r="I286" s="10"/>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="1" t="s">
         <v>121</v>
       </c>
@@ -6977,7 +6983,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="10" t="s">
         <v>128</v>
       </c>
@@ -7004,14 +7010,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="8"/>
       <c r="B289" s="8"/>
       <c r="C289" s="9"/>
       <c r="D289" s="22"/>
       <c r="E289" s="8"/>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2" t="s">
         <v>0</v>
       </c>
@@ -7026,11 +7032,11 @@
       <c r="H290" s="1"/>
       <c r="I290" s="1"/>
     </row>
-    <row r="291" spans="1:9">
-      <c r="A291" s="41" t="s">
+    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B291" s="41" t="s">
+      <c r="B291" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C291" s="1"/>
@@ -7041,7 +7047,7 @@
       <c r="H291" s="1"/>
       <c r="I291" s="1"/>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="1" t="s">
         <v>2</v>
       </c>
@@ -7056,7 +7062,7 @@
       <c r="H292" s="1"/>
       <c r="I292" s="1"/>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>14</v>
       </c>
@@ -7071,7 +7077,7 @@
       <c r="H293" s="1"/>
       <c r="I293" s="1"/>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="1" t="s">
         <v>1</v>
       </c>
@@ -7086,7 +7092,7 @@
       <c r="H294" s="1"/>
       <c r="I294" s="1"/>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="1" t="s">
         <v>8</v>
       </c>
@@ -7101,7 +7107,7 @@
       <c r="H295" s="1"/>
       <c r="I295" s="1"/>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="1" t="s">
         <v>4</v>
       </c>
@@ -7116,7 +7122,7 @@
       <c r="H296" s="1"/>
       <c r="I296" s="1"/>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="1" t="s">
         <v>242</v>
       </c>
@@ -7131,7 +7137,7 @@
       <c r="H297" s="1"/>
       <c r="I297" s="1"/>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>6</v>
       </c>
@@ -7144,7 +7150,7 @@
       <c r="H298" s="1"/>
       <c r="I298" s="1"/>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>7</v>
       </c>
@@ -7173,7 +7179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="1" t="str">
         <f>B290</f>
         <v>double-polished GaAs wafer production - chemical, mechanical polishing (CMP)</v>
@@ -7202,7 +7208,7 @@
       <c r="H300" s="1"/>
       <c r="I300" s="1"/>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="10" t="s">
         <v>260</v>
       </c>
@@ -7227,7 +7233,7 @@
       <c r="H301" s="1"/>
       <c r="I301" s="10"/>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="10" t="s">
         <v>114</v>
       </c>
@@ -7254,7 +7260,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="10" t="s">
         <v>262</v>
       </c>
@@ -7279,7 +7285,7 @@
       <c r="H303" s="1"/>
       <c r="I303" s="10"/>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="1" t="s">
         <v>121</v>
       </c>
@@ -7306,7 +7312,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="10" t="s">
         <v>128</v>
       </c>
@@ -7333,14 +7339,14 @@
         <v>150</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="8"/>
       <c r="B306" s="8"/>
       <c r="C306" s="9"/>
       <c r="D306" s="22"/>
       <c r="E306" s="8"/>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2" t="s">
         <v>0</v>
       </c>
@@ -7355,11 +7361,11 @@
       <c r="H307" s="1"/>
       <c r="I307" s="1"/>
     </row>
-    <row r="308" spans="1:9">
-      <c r="A308" s="41" t="s">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A308" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B308" s="41" t="s">
+      <c r="B308" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C308" s="1"/>
@@ -7370,7 +7376,7 @@
       <c r="H308" s="1"/>
       <c r="I308" s="1"/>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="1" t="s">
         <v>2</v>
       </c>
@@ -7385,7 +7391,7 @@
       <c r="H309" s="1"/>
       <c r="I309" s="1"/>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="1" t="s">
         <v>14</v>
       </c>
@@ -7400,7 +7406,7 @@
       <c r="H310" s="1"/>
       <c r="I310" s="1"/>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="1" t="s">
         <v>1</v>
       </c>
@@ -7415,7 +7421,7 @@
       <c r="H311" s="1"/>
       <c r="I311" s="1"/>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="1" t="s">
         <v>8</v>
       </c>
@@ -7430,7 +7436,7 @@
       <c r="H312" s="1"/>
       <c r="I312" s="1"/>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="1" t="s">
         <v>4</v>
       </c>
@@ -7445,7 +7451,7 @@
       <c r="H313" s="1"/>
       <c r="I313" s="1"/>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="1" t="s">
         <v>242</v>
       </c>
@@ -7460,7 +7466,7 @@
       <c r="H314" s="1"/>
       <c r="I314" s="1"/>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2" t="s">
         <v>6</v>
       </c>
@@ -7473,7 +7479,7 @@
       <c r="H315" s="1"/>
       <c r="I315" s="1"/>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>7</v>
       </c>
@@ -7502,7 +7508,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="1" t="str">
         <f>B307</f>
         <v>CMP slurry production</v>
@@ -7531,7 +7537,7 @@
       <c r="H317" s="1"/>
       <c r="I317" s="1"/>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="10" t="s">
         <v>157</v>
       </c>
@@ -7558,7 +7564,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="10" t="s">
         <v>163</v>
       </c>
@@ -7583,7 +7589,7 @@
       <c r="H319" s="1"/>
       <c r="I319" s="10"/>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="1" t="s">
         <v>102</v>
       </c>
@@ -7608,7 +7614,7 @@
       <c r="H320" s="1"/>
       <c r="I320" s="1"/>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="8"/>
       <c r="B321" s="8"/>
       <c r="C321" s="9"/>
@@ -7619,7 +7625,7 @@
       <c r="H321" s="9"/>
       <c r="I321" s="8"/>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2" t="s">
         <v>0</v>
       </c>
@@ -7634,11 +7640,11 @@
       <c r="H322" s="1"/>
       <c r="I322" s="1"/>
     </row>
-    <row r="323" spans="1:9">
-      <c r="A323" s="41" t="s">
+    <row r="323" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B323" s="41" t="s">
+      <c r="B323" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C323" s="1"/>
@@ -7649,7 +7655,7 @@
       <c r="H323" s="1"/>
       <c r="I323" s="1"/>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="1" t="s">
         <v>2</v>
       </c>
@@ -7664,7 +7670,7 @@
       <c r="H324" s="1"/>
       <c r="I324" s="1"/>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" s="1" t="s">
         <v>14</v>
       </c>
@@ -7679,7 +7685,7 @@
       <c r="H325" s="1"/>
       <c r="I325" s="1"/>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="1" t="s">
         <v>1</v>
       </c>
@@ -7694,7 +7700,7 @@
       <c r="H326" s="1"/>
       <c r="I326" s="1"/>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="1" t="s">
         <v>8</v>
       </c>
@@ -7709,7 +7715,7 @@
       <c r="H327" s="1"/>
       <c r="I327" s="1"/>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="1" t="s">
         <v>4</v>
       </c>
@@ -7724,7 +7730,7 @@
       <c r="H328" s="1"/>
       <c r="I328" s="1"/>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="1" t="s">
         <v>242</v>
       </c>
@@ -7739,7 +7745,7 @@
       <c r="H329" s="1"/>
       <c r="I329" s="1"/>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2" t="s">
         <v>6</v>
       </c>
@@ -7752,7 +7758,7 @@
       <c r="H330" s="1"/>
       <c r="I330" s="1"/>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>7</v>
       </c>
@@ -7781,7 +7787,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="1" t="str">
         <f>B322</f>
         <v>GaAs wafer production - cleaning, quality control, packing</v>
@@ -7810,7 +7816,7 @@
       <c r="H332" s="1"/>
       <c r="I332" s="1"/>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="10" t="s">
         <v>261</v>
       </c>
@@ -7835,7 +7841,7 @@
       <c r="H333" s="1"/>
       <c r="I333" s="10"/>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="10" t="s">
         <v>163</v>
       </c>
@@ -7860,7 +7866,7 @@
       <c r="H334" s="1"/>
       <c r="I334" s="10"/>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="1" t="s">
         <v>102</v>
       </c>
@@ -7885,7 +7891,7 @@
       <c r="H335" s="1"/>
       <c r="I335" s="10"/>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" s="10" t="s">
         <v>177</v>
       </c>
@@ -7912,7 +7918,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" s="10" t="s">
         <v>181</v>
       </c>
@@ -7939,7 +7945,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A338" s="10" t="s">
         <v>184</v>
       </c>
@@ -7966,7 +7972,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>121</v>
       </c>
@@ -7993,7 +7999,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="1" t="s">
         <v>121</v>
       </c>
@@ -8020,7 +8026,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="14"/>
       <c r="B341" s="14"/>
       <c r="C341" s="14"/>
@@ -8031,7 +8037,7 @@
       <c r="H341" s="14"/>
       <c r="I341" s="14"/>
     </row>
-    <row r="342" spans="1:9">
+    <row r="342" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>0</v>
       </c>
@@ -8046,11 +8052,11 @@
       <c r="H342" s="1"/>
       <c r="I342" s="1"/>
     </row>
-    <row r="343" spans="1:9">
-      <c r="A343" s="41" t="s">
+    <row r="343" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B343" s="41" t="s">
+      <c r="B343" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C343" s="1"/>
@@ -8061,7 +8067,7 @@
       <c r="H343" s="1"/>
       <c r="I343" s="1"/>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="1" t="s">
         <v>2</v>
       </c>
@@ -8076,7 +8082,7 @@
       <c r="H344" s="1"/>
       <c r="I344" s="1"/>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>14</v>
       </c>
@@ -8091,7 +8097,7 @@
       <c r="H345" s="1"/>
       <c r="I345" s="1"/>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="1" t="s">
         <v>1</v>
       </c>
@@ -8106,7 +8112,7 @@
       <c r="H346" s="1"/>
       <c r="I346" s="1"/>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="1" t="s">
         <v>8</v>
       </c>
@@ -8121,7 +8127,7 @@
       <c r="H347" s="1"/>
       <c r="I347" s="1"/>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="1" t="s">
         <v>4</v>
       </c>
@@ -8136,7 +8142,7 @@
       <c r="H348" s="1"/>
       <c r="I348" s="1"/>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="1" t="s">
         <v>242</v>
       </c>
@@ -8151,7 +8157,7 @@
       <c r="H349" s="1"/>
       <c r="I349" s="1"/>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2" t="s">
         <v>6</v>
       </c>
@@ -8164,7 +8170,7 @@
       <c r="H350" s="1"/>
       <c r="I350" s="1"/>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>7</v>
       </c>
@@ -8193,7 +8199,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" s="1" t="str">
         <f>B342</f>
         <v>trimethyl aluminum 99% pure production</v>
@@ -8221,7 +8227,7 @@
       <c r="H352" s="1"/>
       <c r="I352" s="1"/>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" s="29" t="s">
         <v>265</v>
       </c>
@@ -8246,9 +8252,9 @@
       <c r="H353" s="1"/>
       <c r="I353" s="10"/>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" s="29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B354" s="29" t="s">
         <v>66</v>
@@ -8271,9 +8277,9 @@
       <c r="H354" s="1"/>
       <c r="I354" s="10"/>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" s="34" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B355" s="34" t="s">
         <v>202</v>
@@ -8296,12 +8302,12 @@
       <c r="H355" s="1"/>
       <c r="I355" s="10"/>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" s="29" t="s">
+        <v>271</v>
+      </c>
+      <c r="B356" s="29" t="s">
         <v>272</v>
-      </c>
-      <c r="B356" s="29" t="s">
-        <v>273</v>
       </c>
       <c r="C356" s="1" t="s">
         <v>74</v>
@@ -8321,7 +8327,7 @@
       <c r="H356" s="1"/>
       <c r="I356" s="1"/>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" s="1" t="s">
         <v>121</v>
       </c>
@@ -8346,7 +8352,7 @@
       <c r="H357" s="1"/>
       <c r="I357" s="1"/>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" s="1" t="s">
         <v>90</v>
       </c>
@@ -8373,7 +8379,8 @@
         <v>185</v>
       </c>
     </row>
-    <row r="360" spans="1:9">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2" t="s">
         <v>0</v>
       </c>
@@ -8388,11 +8395,11 @@
       <c r="H360" s="1"/>
       <c r="I360" s="1"/>
     </row>
-    <row r="361" spans="1:9">
-      <c r="A361" s="41" t="s">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A361" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B361" s="41" t="s">
+      <c r="B361" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C361" s="1"/>
@@ -8403,7 +8410,7 @@
       <c r="H361" s="1"/>
       <c r="I361" s="1"/>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" s="1" t="s">
         <v>2</v>
       </c>
@@ -8418,7 +8425,7 @@
       <c r="H362" s="1"/>
       <c r="I362" s="1"/>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" s="1" t="s">
         <v>14</v>
       </c>
@@ -8433,7 +8440,7 @@
       <c r="H363" s="1"/>
       <c r="I363" s="1"/>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" s="1" t="s">
         <v>1</v>
       </c>
@@ -8448,7 +8455,7 @@
       <c r="H364" s="1"/>
       <c r="I364" s="1"/>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" s="1" t="s">
         <v>8</v>
       </c>
@@ -8463,7 +8470,7 @@
       <c r="H365" s="1"/>
       <c r="I365" s="1"/>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" s="1" t="s">
         <v>4</v>
       </c>
@@ -8478,7 +8485,7 @@
       <c r="H366" s="1"/>
       <c r="I366" s="1"/>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" s="1" t="s">
         <v>242</v>
       </c>
@@ -8493,7 +8500,7 @@
       <c r="H367" s="1"/>
       <c r="I367" s="1"/>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2" t="s">
         <v>6</v>
       </c>
@@ -8506,7 +8513,7 @@
       <c r="H368" s="1"/>
       <c r="I368" s="1"/>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>7</v>
       </c>
@@ -8535,318 +8542,319 @@
         <v>15</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
-      <c r="A370" s="41" t="str">
+    <row r="370" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A370" s="1" t="str">
         <f>B360</f>
         <v>methyl aluminum sesquichloride production</v>
       </c>
-      <c r="B370" s="41" t="str">
+      <c r="B370" s="1" t="str">
         <f>B362</f>
         <v>methyl aluminum sesquichloride</v>
       </c>
-      <c r="C370" s="41" t="s">
+      <c r="C370" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D370" s="48">
+      <c r="D370" s="12">
         <f>B365</f>
         <v>1</v>
       </c>
-      <c r="E370" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F370" s="41" t="s">
+      <c r="E370" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F370" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G370" s="41" t="s">
+      <c r="G370" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H370" s="41"/>
-      <c r="I370" s="41"/>
-    </row>
-    <row r="371" spans="1:9" s="38" customFormat="1">
-      <c r="A371" s="49" t="s">
+      <c r="H370" s="1"/>
+      <c r="I370" s="1"/>
+    </row>
+    <row r="371" spans="1:9" s="38" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A371" s="34" t="s">
         <v>186</v>
       </c>
-      <c r="B371" s="49" t="s">
+      <c r="B371" s="34" t="s">
         <v>215</v>
       </c>
-      <c r="C371" s="41" t="s">
+      <c r="C371" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D371" s="50">
+      <c r="D371" s="47">
         <v>1.6E-2</v>
       </c>
-      <c r="E371" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F371" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G371" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H371" s="41"/>
-      <c r="I371" s="49"/>
-    </row>
-    <row r="372" spans="1:9">
-      <c r="A372" s="49" t="s">
+      <c r="E371" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F371" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G371" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H371" s="1"/>
+      <c r="I371" s="34"/>
+    </row>
+    <row r="372" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A372" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="B372" s="49" t="s">
+      <c r="B372" s="34" t="s">
         <v>188</v>
       </c>
-      <c r="C372" s="41" t="s">
+      <c r="C372" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D372" s="50">
+      <c r="D372" s="47">
         <v>0.26200000000000001</v>
       </c>
-      <c r="E372" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F372" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G372" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H372" s="41"/>
-      <c r="I372" s="49" t="s">
+      <c r="E372" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F372" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G372" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H372" s="1"/>
+      <c r="I372" s="34" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="373" spans="1:9">
-      <c r="A373" s="49" t="s">
+    <row r="373" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A373" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="B373" s="49" t="s">
+      <c r="B373" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C373" s="41" t="s">
+      <c r="C373" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D373" s="50">
+      <c r="D373" s="47">
         <v>0.73699999999999999</v>
       </c>
-      <c r="E373" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F373" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G373" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H373" s="41"/>
-      <c r="I373" s="49"/>
-    </row>
-    <row r="374" spans="1:9">
-      <c r="A374" s="41" t="s">
+      <c r="E373" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F373" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G373" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H373" s="1"/>
+      <c r="I373" s="34"/>
+    </row>
+    <row r="374" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A374" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B374" s="41" t="s">
+      <c r="B374" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C374" s="41" t="s">
+      <c r="C374" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D374" s="50">
+      <c r="D374" s="47">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="E374" s="41" t="s">
+      <c r="E374" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F374" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G374" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H374" s="41"/>
-      <c r="I374" s="41"/>
-    </row>
-    <row r="375" spans="1:9" s="6" customFormat="1">
-      <c r="A375" s="49" t="s">
+      <c r="F374" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G374" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H374" s="1"/>
+      <c r="I374" s="1"/>
+    </row>
+    <row r="375" spans="1:9" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A375" s="34" t="s">
         <v>208</v>
       </c>
-      <c r="B375" s="49"/>
-      <c r="C375" s="41"/>
-      <c r="D375" s="50">
+      <c r="B375" s="34"/>
+      <c r="C375" s="1"/>
+      <c r="D375" s="47">
         <v>2.3E-2</v>
       </c>
-      <c r="E375" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F375" s="41" t="s">
+      <c r="E375" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F375" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G375" s="41" t="s">
+      <c r="G375" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H375" s="41" t="s">
+      <c r="H375" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I375" s="41" t="s">
+      <c r="I375" s="1" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="376" spans="1:9">
-      <c r="A376" s="49" t="s">
+    <row r="376" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A376" s="34" t="s">
         <v>209</v>
       </c>
-      <c r="B376" s="49"/>
-      <c r="C376" s="41"/>
-      <c r="D376" s="50">
+      <c r="B376" s="34"/>
+      <c r="C376" s="1"/>
+      <c r="D376" s="47">
         <v>2.3E-2</v>
       </c>
-      <c r="E376" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F376" s="41" t="s">
+      <c r="E376" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F376" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="G376" s="41" t="s">
+      <c r="G376" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H376" s="41" t="s">
+      <c r="H376" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I376" s="41"/>
-    </row>
-    <row r="378" spans="1:9">
+      <c r="I376" s="1"/>
+    </row>
+    <row r="377" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="378" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B378" s="39" t="s">
         <v>266</v>
       </c>
-      <c r="C378" s="41"/>
-      <c r="D378" s="48"/>
-      <c r="E378" s="41"/>
-      <c r="F378" s="41"/>
-      <c r="G378" s="41"/>
-      <c r="H378" s="41"/>
-      <c r="I378" s="41"/>
-    </row>
-    <row r="379" spans="1:9">
-      <c r="A379" s="41" t="s">
+      <c r="C378" s="1"/>
+      <c r="D378" s="12"/>
+      <c r="E378" s="1"/>
+      <c r="F378" s="1"/>
+      <c r="G378" s="1"/>
+      <c r="H378" s="1"/>
+      <c r="I378" s="1"/>
+    </row>
+    <row r="379" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A379" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B379" s="41" t="s">
+      <c r="B379" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="C379" s="41"/>
-      <c r="D379" s="48"/>
-      <c r="E379" s="41"/>
-      <c r="F379" s="41"/>
-      <c r="G379" s="41"/>
-      <c r="H379" s="41"/>
-      <c r="I379" s="41"/>
-    </row>
-    <row r="380" spans="1:9">
-      <c r="A380" s="41" t="s">
+      <c r="C379" s="1"/>
+      <c r="D379" s="12"/>
+      <c r="E379" s="1"/>
+      <c r="F379" s="1"/>
+      <c r="G379" s="1"/>
+      <c r="H379" s="1"/>
+      <c r="I379" s="1"/>
+    </row>
+    <row r="380" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A380" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B380" s="49" t="s">
+      <c r="B380" s="34" t="s">
         <v>248</v>
       </c>
-      <c r="C380" s="41"/>
-      <c r="D380" s="48"/>
-      <c r="E380" s="41"/>
-      <c r="F380" s="41"/>
-      <c r="G380" s="41"/>
-      <c r="H380" s="41"/>
-      <c r="I380" s="41"/>
-    </row>
-    <row r="381" spans="1:9">
-      <c r="A381" s="41" t="s">
+      <c r="C380" s="1"/>
+      <c r="D380" s="12"/>
+      <c r="E380" s="1"/>
+      <c r="F380" s="1"/>
+      <c r="G380" s="1"/>
+      <c r="H380" s="1"/>
+      <c r="I380" s="1"/>
+    </row>
+    <row r="381" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A381" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B381" s="41" t="s">
+      <c r="B381" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C381" s="41"/>
-      <c r="D381" s="48"/>
-      <c r="E381" s="41"/>
-      <c r="F381" s="41"/>
-      <c r="G381" s="41"/>
-      <c r="H381" s="41"/>
-      <c r="I381" s="41"/>
-    </row>
-    <row r="382" spans="1:9">
-      <c r="A382" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B382" s="41" t="s">
+      <c r="C381" s="1"/>
+      <c r="D381" s="12"/>
+      <c r="E381" s="1"/>
+      <c r="F381" s="1"/>
+      <c r="G381" s="1"/>
+      <c r="H381" s="1"/>
+      <c r="I381" s="1"/>
+    </row>
+    <row r="382" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A382" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B382" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C382" s="41"/>
-      <c r="D382" s="48"/>
-      <c r="E382" s="41"/>
-      <c r="F382" s="41"/>
-      <c r="G382" s="41"/>
-      <c r="H382" s="41"/>
-      <c r="I382" s="41"/>
-    </row>
-    <row r="383" spans="1:9">
-      <c r="A383" s="41" t="s">
+      <c r="C382" s="1"/>
+      <c r="D382" s="12"/>
+      <c r="E382" s="1"/>
+      <c r="F382" s="1"/>
+      <c r="G382" s="1"/>
+      <c r="H382" s="1"/>
+      <c r="I382" s="1"/>
+    </row>
+    <row r="383" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A383" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B383" s="41">
-        <v>1</v>
-      </c>
-      <c r="C383" s="41"/>
-      <c r="D383" s="48"/>
-      <c r="E383" s="41"/>
-      <c r="F383" s="41"/>
-      <c r="G383" s="41"/>
-      <c r="H383" s="41"/>
-      <c r="I383" s="41"/>
-    </row>
-    <row r="384" spans="1:9">
-      <c r="A384" s="41" t="s">
+      <c r="B383" s="1">
+        <v>1</v>
+      </c>
+      <c r="C383" s="1"/>
+      <c r="D383" s="12"/>
+      <c r="E383" s="1"/>
+      <c r="F383" s="1"/>
+      <c r="G383" s="1"/>
+      <c r="H383" s="1"/>
+      <c r="I383" s="1"/>
+    </row>
+    <row r="384" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A384" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B384" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C384" s="41"/>
-      <c r="D384" s="48"/>
-      <c r="E384" s="41"/>
-      <c r="F384" s="41"/>
-      <c r="G384" s="41"/>
-      <c r="H384" s="41"/>
-      <c r="I384" s="41"/>
-    </row>
-    <row r="385" spans="1:9">
+      <c r="B384" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C384" s="1"/>
+      <c r="D384" s="12"/>
+      <c r="E384" s="1"/>
+      <c r="F384" s="1"/>
+      <c r="G384" s="1"/>
+      <c r="H384" s="1"/>
+      <c r="I384" s="1"/>
+    </row>
+    <row r="385" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>242</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C385" s="41"/>
-      <c r="D385" s="48"/>
-      <c r="E385" s="41"/>
-      <c r="F385" s="41"/>
-      <c r="G385" s="41"/>
-      <c r="H385" s="41"/>
-      <c r="I385" s="41"/>
-    </row>
-    <row r="386" spans="1:9">
+      <c r="C385" s="1"/>
+      <c r="D385" s="12"/>
+      <c r="E385" s="1"/>
+      <c r="F385" s="1"/>
+      <c r="G385" s="1"/>
+      <c r="H385" s="1"/>
+      <c r="I385" s="1"/>
+    </row>
+    <row r="386" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B386" s="41"/>
-      <c r="C386" s="41"/>
-      <c r="D386" s="48"/>
-      <c r="E386" s="41"/>
-      <c r="F386" s="41"/>
-      <c r="G386" s="41"/>
-      <c r="H386" s="41"/>
-      <c r="I386" s="41"/>
-    </row>
-    <row r="387" spans="1:9">
+      <c r="B386" s="1"/>
+      <c r="C386" s="1"/>
+      <c r="D386" s="12"/>
+      <c r="E386" s="1"/>
+      <c r="F386" s="1"/>
+      <c r="G386" s="1"/>
+      <c r="H386" s="1"/>
+      <c r="I386" s="1"/>
+    </row>
+    <row r="387" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>7</v>
       </c>
@@ -8875,164 +8883,165 @@
         <v>15</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
-      <c r="A388" s="41" t="str">
+    <row r="388" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A388" s="1" t="str">
         <f>B378</f>
         <v>trimethyl gallium 99% pure production</v>
       </c>
-      <c r="B388" s="41" t="str">
+      <c r="B388" s="1" t="str">
         <f>B380</f>
         <v>trimethyl gallium 99% pure</v>
       </c>
-      <c r="C388" s="41" t="s">
+      <c r="C388" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D388" s="48">
+      <c r="D388" s="12">
         <f>B383</f>
         <v>1</v>
       </c>
-      <c r="E388" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F388" s="41" t="s">
+      <c r="E388" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F388" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G388" s="41" t="s">
+      <c r="G388" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H388" s="41"/>
-      <c r="I388" s="41"/>
-    </row>
-    <row r="389" spans="1:9">
-      <c r="A389" s="49" t="s">
+      <c r="H388" s="1"/>
+      <c r="I388" s="1"/>
+    </row>
+    <row r="389" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A389" s="34" t="s">
         <v>267</v>
       </c>
-      <c r="B389" s="49" t="s">
+      <c r="B389" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="C389" s="41" t="s">
+      <c r="C389" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D389" s="50">
+      <c r="D389" s="47">
         <v>1.5760000000000001</v>
       </c>
-      <c r="E389" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F389" s="41" t="s">
+      <c r="E389" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F389" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G389" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H389" s="41"/>
-      <c r="I389" s="49"/>
-    </row>
-    <row r="390" spans="1:9">
-      <c r="A390" s="49" t="s">
+      <c r="G389" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H389" s="1"/>
+      <c r="I389" s="34"/>
+    </row>
+    <row r="390" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A390" s="34" t="s">
         <v>264</v>
       </c>
-      <c r="B390" s="49" t="s">
+      <c r="B390" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="C390" s="41" t="s">
+      <c r="C390" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D390" s="50">
+      <c r="D390" s="47">
         <v>1.012</v>
       </c>
-      <c r="E390" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F390" s="41" t="s">
+      <c r="E390" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F390" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="G390" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H390" s="41"/>
-      <c r="I390" s="49"/>
-    </row>
-    <row r="391" spans="1:9">
-      <c r="A391" s="49" t="s">
+      <c r="G390" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H390" s="1"/>
+      <c r="I390" s="34"/>
+    </row>
+    <row r="391" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A391" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="B391" s="49" t="s">
+      <c r="B391" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="C391" s="41" t="s">
+      <c r="C391" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D391" s="50">
+      <c r="D391" s="47">
         <v>0.8</v>
       </c>
-      <c r="E391" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F391" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G391" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H391" s="41"/>
-      <c r="I391" s="49" t="s">
+      <c r="E391" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F391" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G391" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H391" s="1"/>
+      <c r="I391" s="34" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="392" spans="1:9">
-      <c r="A392" s="41" t="s">
+    <row r="392" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A392" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B392" s="41" t="s">
+      <c r="B392" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C392" s="41" t="s">
+      <c r="C392" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D392" s="50">
+      <c r="D392" s="47">
         <v>0.112</v>
       </c>
-      <c r="E392" s="41" t="s">
+      <c r="E392" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F392" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G392" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H392" s="41"/>
-      <c r="I392" s="41"/>
-    </row>
-    <row r="393" spans="1:9" s="6" customFormat="1">
-      <c r="A393" s="49" t="s">
+      <c r="F392" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G392" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H392" s="1"/>
+      <c r="I392" s="1"/>
+    </row>
+    <row r="393" spans="1:9" s="6" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A393" s="34" t="s">
         <v>195</v>
       </c>
-      <c r="B393" s="49" t="s">
+      <c r="B393" s="34" t="s">
         <v>193</v>
       </c>
-      <c r="C393" s="41" t="s">
+      <c r="C393" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D393" s="50">
+      <c r="D393" s="47">
         <v>-2.4</v>
       </c>
-      <c r="E393" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="F393" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="G393" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="H393" s="41"/>
-      <c r="I393" s="41" t="s">
+      <c r="E393" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F393" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G393" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H393" s="1"/>
+      <c r="I393" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="395" spans="1:9">
+    <row r="394" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="395" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
         <v>0</v>
       </c>
@@ -9047,11 +9056,11 @@
       <c r="H395" s="1"/>
       <c r="I395" s="1"/>
     </row>
-    <row r="396" spans="1:9">
-      <c r="A396" s="41" t="s">
+    <row r="396" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A396" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B396" s="41" t="s">
+      <c r="B396" s="1" t="s">
         <v>249</v>
       </c>
       <c r="C396" s="1"/>
@@ -9062,7 +9071,7 @@
       <c r="H396" s="1"/>
       <c r="I396" s="1"/>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" s="1" t="s">
         <v>2</v>
       </c>
@@ -9077,7 +9086,7 @@
       <c r="H397" s="1"/>
       <c r="I397" s="1"/>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" s="1" t="s">
         <v>14</v>
       </c>
@@ -9092,7 +9101,7 @@
       <c r="H398" s="1"/>
       <c r="I398" s="1"/>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" s="1" t="s">
         <v>1</v>
       </c>
@@ -9107,7 +9116,7 @@
       <c r="H399" s="1"/>
       <c r="I399" s="1"/>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" s="1" t="s">
         <v>8</v>
       </c>
@@ -9122,7 +9131,7 @@
       <c r="H400" s="1"/>
       <c r="I400" s="1"/>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" s="1" t="s">
         <v>4</v>
       </c>
@@ -9137,7 +9146,7 @@
       <c r="H401" s="1"/>
       <c r="I401" s="1"/>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" s="1" t="s">
         <v>242</v>
       </c>
@@ -9152,7 +9161,7 @@
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2" t="s">
         <v>6</v>
       </c>
@@ -9165,7 +9174,7 @@
       <c r="H403" s="1"/>
       <c r="I403" s="1"/>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>7</v>
       </c>
@@ -9194,7 +9203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" s="1" t="str">
         <f>B395</f>
         <v>gallium chloride production</v>
@@ -9222,7 +9231,7 @@
       <c r="H405" s="1"/>
       <c r="I405" s="1"/>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" s="29" t="s">
         <v>130</v>
       </c>
@@ -9247,7 +9256,7 @@
       <c r="H406" s="1"/>
       <c r="I406" s="10"/>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" s="29" t="s">
         <v>198</v>
       </c>
@@ -9274,7 +9283,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" s="1" t="s">
         <v>121</v>
       </c>
@@ -9299,19 +9308,19 @@
       <c r="H408" s="1"/>
       <c r="I408" s="10"/>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" s="25"/>
       <c r="B409" s="25"/>
       <c r="C409" s="26"/>
       <c r="D409" s="27"/>
       <c r="E409" s="25"/>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B410" s="28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C410" s="1"/>
       <c r="D410" s="12"/>
@@ -9321,11 +9330,11 @@
       <c r="H410" s="1"/>
       <c r="I410" s="1"/>
     </row>
-    <row r="411" spans="1:9">
-      <c r="A411" s="41" t="s">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A411" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B411" s="41" t="s">
+      <c r="B411" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C411" s="1"/>
@@ -9336,7 +9345,7 @@
       <c r="H411" s="1"/>
       <c r="I411" s="1"/>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" s="1" t="s">
         <v>2</v>
       </c>
@@ -9351,7 +9360,7 @@
       <c r="H412" s="1"/>
       <c r="I412" s="1"/>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" s="1" t="s">
         <v>14</v>
       </c>
@@ -9366,7 +9375,7 @@
       <c r="H413" s="1"/>
       <c r="I413" s="1"/>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" s="1" t="s">
         <v>1</v>
       </c>
@@ -9381,7 +9390,7 @@
       <c r="H414" s="1"/>
       <c r="I414" s="1"/>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" s="1" t="s">
         <v>8</v>
       </c>
@@ -9396,7 +9405,7 @@
       <c r="H415" s="1"/>
       <c r="I415" s="1"/>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" s="1" t="s">
         <v>4</v>
       </c>
@@ -9411,7 +9420,7 @@
       <c r="H416" s="1"/>
       <c r="I416" s="1"/>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" s="1" t="s">
         <v>242</v>
       </c>
@@ -9426,7 +9435,7 @@
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" s="2" t="s">
         <v>6</v>
       </c>
@@ -9439,7 +9448,7 @@
       <c r="H418" s="1"/>
       <c r="I418" s="1"/>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>7</v>
       </c>
@@ -9468,7 +9477,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" s="1" t="str">
         <f>B410</f>
         <v>photovoltaic installation, 0.28kWp, GaAs</v>
@@ -9499,7 +9508,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" s="1" t="s">
         <v>121</v>
       </c>
@@ -9524,7 +9533,7 @@
       <c r="H421" s="1"/>
       <c r="I421" s="1"/>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" s="29" t="s">
         <v>225</v>
       </c>
@@ -9538,7 +9547,7 @@
         <f>2.4*0.28/3</f>
         <v>0.224</v>
       </c>
-      <c r="E422" s="41" t="s">
+      <c r="E422" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F422" s="1" t="s">
@@ -9552,7 +9561,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" s="1" t="s">
         <v>232</v>
       </c>
@@ -9577,7 +9586,7 @@
       <c r="H423" s="1"/>
       <c r="I423" s="1"/>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" s="1" t="s">
         <v>227</v>
       </c>
@@ -9602,7 +9611,7 @@
       <c r="H424" s="1"/>
       <c r="I424" s="1"/>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" s="29" t="s">
         <v>246</v>
       </c>
@@ -9612,10 +9621,10 @@
       <c r="C425" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D425" s="42">
+      <c r="D425" s="41">
         <v>22.071000000000002</v>
       </c>
-      <c r="E425" s="41" t="s">
+      <c r="E425" s="1" t="s">
         <v>20</v>
       </c>
       <c r="F425" s="1" t="s">
@@ -9627,12 +9636,13 @@
       <c r="H425" s="1"/>
       <c r="I425" s="1"/>
     </row>
-    <row r="427" spans="1:9">
+    <row r="426" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="427" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B427" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C427" s="1"/>
       <c r="D427" s="12"/>
@@ -9642,11 +9652,11 @@
       <c r="H427" s="1"/>
       <c r="I427" s="1"/>
     </row>
-    <row r="428" spans="1:9">
-      <c r="A428" s="41" t="s">
+    <row r="428" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A428" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="B428" s="41" t="s">
+      <c r="B428" s="1" t="s">
         <v>244</v>
       </c>
       <c r="C428" s="1"/>
@@ -9657,12 +9667,12 @@
       <c r="H428" s="1"/>
       <c r="I428" s="1"/>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C429" s="1"/>
       <c r="D429" s="12"/>
@@ -9672,7 +9682,7 @@
       <c r="H429" s="1"/>
       <c r="I429" s="1"/>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A430" s="1" t="s">
         <v>14</v>
       </c>
@@ -9687,7 +9697,7 @@
       <c r="H430" s="1"/>
       <c r="I430" s="1"/>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>1</v>
       </c>
@@ -9702,7 +9712,7 @@
       <c r="H431" s="1"/>
       <c r="I431" s="1"/>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="1" t="s">
         <v>8</v>
       </c>
@@ -9717,7 +9727,7 @@
       <c r="H432" s="1"/>
       <c r="I432" s="1"/>
     </row>
-    <row r="433" spans="1:9">
+    <row r="433" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="1" t="s">
         <v>4</v>
       </c>
@@ -9732,7 +9742,7 @@
       <c r="H433" s="1"/>
       <c r="I433" s="1"/>
     </row>
-    <row r="434" spans="1:9">
+    <row r="434" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="1" t="s">
         <v>242</v>
       </c>
@@ -9747,7 +9757,7 @@
       <c r="H434" s="1"/>
       <c r="I434" s="1"/>
     </row>
-    <row r="435" spans="1:9">
+    <row r="435" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
         <v>6</v>
       </c>
@@ -9760,7 +9770,7 @@
       <c r="H435" s="1"/>
       <c r="I435" s="1"/>
     </row>
-    <row r="436" spans="1:9">
+    <row r="436" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>7</v>
       </c>
@@ -9789,7 +9799,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="437" spans="1:9">
+    <row r="437" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="str">
         <f>B427</f>
         <v xml:space="preserve">electricity production, photovoltaic, 0.28kWp, GaAs </v>
@@ -9817,9 +9827,9 @@
       <c r="H437" s="1"/>
       <c r="I437" s="1"/>
     </row>
-    <row r="438" spans="1:9">
+    <row r="438" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B438" s="1" t="s">
         <v>222</v>
@@ -9845,109 +9855,116 @@
         <v>229</v>
       </c>
     </row>
-    <row r="439" spans="1:9">
-      <c r="A439" s="43" t="s">
+    <row r="439" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A439" s="42" t="s">
         <v>238</v>
       </c>
-      <c r="B439" s="43" t="s">
+      <c r="B439" s="42" t="s">
         <v>237</v>
       </c>
-      <c r="C439" s="43" t="s">
+      <c r="C439" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D439" s="47">
+      <c r="D439" s="46">
         <f>0.00579493511839/0.0000135395680336215*D438</f>
         <v>3.526116328884494E-4</v>
       </c>
-      <c r="E439" s="43" t="s">
-        <v>5</v>
-      </c>
-      <c r="F439" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G439" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H439" s="43"/>
-      <c r="I439" s="43" t="s">
+      <c r="E439" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="F439" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G439" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H439" s="42"/>
+      <c r="I439" s="42" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="440" spans="1:9">
-      <c r="A440" s="44" t="s">
+    <row r="440" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A440" s="43" t="s">
         <v>239</v>
       </c>
-      <c r="B440" s="43" t="s">
+      <c r="B440" s="42" t="s">
         <v>240</v>
       </c>
-      <c r="C440" s="43" t="s">
+      <c r="C440" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="D440" s="45">
+      <c r="D440" s="44">
         <f>-0.00000579493511839/0.0000135395680336215*D438</f>
         <v>-3.5261163288844939E-7</v>
       </c>
-      <c r="E440" s="43" t="s">
+      <c r="E440" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F440" s="43" t="s">
-        <v>22</v>
-      </c>
-      <c r="G440" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="H440" s="43"/>
-      <c r="I440" s="46"/>
-    </row>
-    <row r="441" spans="1:9">
-      <c r="A441" s="43" t="s">
+      <c r="F440" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G440" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H440" s="42"/>
+      <c r="I440" s="45"/>
+    </row>
+    <row r="441" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A441" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B441" s="43"/>
-      <c r="C441" s="43"/>
-      <c r="D441" s="47">
+      <c r="B441" s="42"/>
+      <c r="C441" s="42"/>
+      <c r="D441" s="46">
         <f>0.0000008692402677585/0.0000135395680336215*D438</f>
         <v>5.2891744933267405E-8</v>
       </c>
-      <c r="E441" s="43" t="s">
+      <c r="E441" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="F441" s="43" t="s">
+      <c r="F441" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G441" s="43" t="s">
+      <c r="G441" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H441" s="43" t="s">
+      <c r="H441" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="I441" s="43"/>
-    </row>
-    <row r="442" spans="1:9">
-      <c r="A442" s="44" t="s">
+      <c r="I441" s="42"/>
+    </row>
+    <row r="442" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A442" s="43" t="s">
         <v>233</v>
       </c>
-      <c r="B442" s="43"/>
-      <c r="C442" s="43"/>
-      <c r="D442" s="45">
+      <c r="B442" s="42"/>
+      <c r="C442" s="42"/>
+      <c r="D442" s="44">
         <f>3.8503/0.0000135395680336215*D438</f>
         <v>0.23428399841819003</v>
       </c>
-      <c r="E442" s="43" t="s">
+      <c r="E442" s="42" t="s">
         <v>235</v>
       </c>
-      <c r="F442" s="43" t="s">
+      <c r="F442" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="G442" s="43" t="s">
+      <c r="G442" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="H442" s="43" t="s">
+      <c r="H442" s="42" t="s">
         <v>234</v>
       </c>
-      <c r="I442" s="46"/>
+      <c r="I442" s="45"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I442" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="hydrogen, gaseous, low pressure"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/premise/data/additional_inventories/lci-PV-GaAs.xlsx
+++ b/premise/data/additional_inventories/lci-PV-GaAs.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C2EE2B8-EBB8-4574-A0C7-9B60E5B3901D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BA4066-325E-3C46-A2F7-CE0061120767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV_GaAs" sheetId="3" r:id="rId1"/>
@@ -899,9 +899,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1027,7 +1027,7 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1392,25 +1392,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A424" zoomScale="108" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B428" sqref="B428"/>
+    <sheetView tabSelected="1" topLeftCell="B424" zoomScale="108" zoomScaleNormal="94" workbookViewId="0">
+      <selection activeCell="I443" sqref="I443"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="71.7109375" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="71.6640625" customWidth="1"/>
+    <col min="2" max="2" width="51.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" customWidth="1"/>
+    <col min="9" max="9" width="44.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -1418,7 +1418,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>0</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>238</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -1442,7 +1442,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1450,7 +1450,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>4</v>
       </c>
@@ -1474,7 +1474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>239</v>
       </c>
@@ -1482,12 +1482,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>7</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="str">
         <f>B5</f>
         <v>coating, drying, optical lithography</v>
@@ -1546,7 +1546,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="15.75">
+    <row r="16" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>259</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -1595,7 +1595,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>74</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>104</v>
       </c>
@@ -1644,7 +1644,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>78</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>80</v>
       </c>
@@ -1693,7 +1693,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>83</v>
       </c>
@@ -1716,7 +1716,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>88</v>
       </c>
@@ -1737,7 +1737,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>89</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>0</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>238</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -1787,7 +1787,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>1</v>
       </c>
@@ -1803,7 +1803,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1811,7 +1811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -1827,12 +1827,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f>B26</f>
         <v>electroplating</v>
@@ -1886,7 +1886,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>219</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>97</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>98</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>80</v>
       </c>
@@ -1981,7 +1981,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>83</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>99</v>
       </c>
@@ -2025,7 +2025,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>99</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>202</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>89</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>0</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>238</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>14</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>1</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>8</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>239</v>
       </c>
@@ -2159,12 +2159,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>7</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="str">
         <f>B47</f>
         <v>wet etching</v>
@@ -2218,7 +2218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>22</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>101</v>
       </c>
@@ -2267,7 +2267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>80</v>
       </c>
@@ -2293,7 +2293,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>83</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>89</v>
       </c>
@@ -2342,7 +2342,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>238</v>
       </c>
@@ -2358,7 +2358,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>14</v>
       </c>
@@ -2374,7 +2374,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>1</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>4</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>239</v>
       </c>
@@ -2406,12 +2406,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>7</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="str">
         <f>B64</f>
         <v>metal organic vapor phase epitaxy (MOVPE), for GaAs photovoltaic panel</v>
@@ -2465,7 +2465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>26</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>273</v>
       </c>
@@ -2514,7 +2514,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" s="8" t="s">
         <v>262</v>
       </c>
@@ -2586,7 +2586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>107</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>104</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>83</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>89</v>
       </c>
@@ -2684,14 +2684,14 @@
         <v>109</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C84" s="28"/>
       <c r="D84" s="7"/>
       <c r="E84" s="28"/>
       <c r="F84" s="28"/>
       <c r="G84" s="28"/>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C85" s="28"/>
       <c r="D85" s="7"/>
       <c r="E85" s="28"/>
@@ -2699,7 +2699,7 @@
       <c r="G85" s="28"/>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>0</v>
       </c>
@@ -2707,7 +2707,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>238</v>
       </c>
@@ -2715,7 +2715,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>2</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>1</v>
       </c>
@@ -2739,7 +2739,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>8</v>
       </c>
@@ -2747,7 +2747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>4</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>239</v>
       </c>
@@ -2763,12 +2763,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>7</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="str">
         <f>B86</f>
         <v>epitaxial lift-off (ELO)</v>
@@ -2825,7 +2825,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>278</v>
       </c>
@@ -2849,7 +2849,7 @@
       </c>
       <c r="I97" s="6"/>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>110</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>84</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>74</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>113</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>258</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>120</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>89</v>
       </c>
@@ -3051,7 +3051,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>0</v>
       </c>
@@ -3059,7 +3059,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>238</v>
       </c>
@@ -3067,7 +3067,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>2</v>
       </c>
@@ -3075,7 +3075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>14</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>1</v>
       </c>
@@ -3091,7 +3091,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>8</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>4</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -3115,12 +3115,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" s="2" t="s">
         <v>7</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="str">
         <f>B107</f>
         <v>polycrystalline GaAs boule production</v>
@@ -3176,7 +3176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>247</v>
       </c>
@@ -3200,7 +3200,7 @@
       </c>
       <c r="I118" s="9"/>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>248</v>
       </c>
@@ -3224,7 +3224,7 @@
       </c>
       <c r="I119" s="9"/>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>123</v>
       </c>
@@ -3250,7 +3250,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>120</v>
       </c>
@@ -3276,7 +3276,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>127</v>
       </c>
@@ -3302,10 +3302,10 @@
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C123" s="6"/>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>0</v>
       </c>
@@ -3313,7 +3313,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>238</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>2</v>
       </c>
@@ -3329,7 +3329,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>14</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>1</v>
       </c>
@@ -3345,7 +3345,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>8</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>4</v>
       </c>
@@ -3361,7 +3361,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>239</v>
       </c>
@@ -3369,12 +3369,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" s="2" t="s">
         <v>7</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="str">
         <f>B124</f>
         <v>7N gallium production</v>
@@ -3429,7 +3429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
         <v>129</v>
       </c>
@@ -3455,7 +3455,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>120</v>
       </c>
@@ -3481,13 +3481,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" s="9"/>
       <c r="B137" s="9"/>
       <c r="C137" s="6"/>
       <c r="D137" s="10"/>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" s="2" t="s">
         <v>0</v>
       </c>
@@ -3495,7 +3495,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>238</v>
       </c>
@@ -3503,7 +3503,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>2</v>
       </c>
@@ -3511,7 +3511,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>14</v>
       </c>
@@ -3519,7 +3519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>1</v>
       </c>
@@ -3527,7 +3527,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>8</v>
       </c>
@@ -3535,7 +3535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>4</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>239</v>
       </c>
@@ -3551,12 +3551,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
         <v>7</v>
       </c>
@@ -3585,7 +3585,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148" t="str">
         <f>B138</f>
         <v>7N arsenic production</v>
@@ -3611,7 +3611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>107</v>
       </c>
@@ -3637,7 +3637,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>273</v>
       </c>
@@ -3663,7 +3663,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>134</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>120</v>
       </c>
@@ -3715,7 +3715,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="s">
         <v>0</v>
       </c>
@@ -3723,7 +3723,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>238</v>
       </c>
@@ -3731,7 +3731,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>2</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>14</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>1</v>
       </c>
@@ -3755,7 +3755,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>8</v>
       </c>
@@ -3763,7 +3763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>4</v>
       </c>
@@ -3771,7 +3771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>239</v>
       </c>
@@ -3779,12 +3779,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="s">
         <v>7</v>
       </c>
@@ -3813,7 +3813,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164" t="str">
         <f>B154</f>
         <v>single-crystal GaAs boule production</v>
@@ -3839,7 +3839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>246</v>
       </c>
@@ -3863,7 +3863,7 @@
       </c>
       <c r="I165" s="9"/>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>139</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>123</v>
       </c>
@@ -3915,7 +3915,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>120</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>127</v>
       </c>
@@ -3967,7 +3967,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>127</v>
       </c>
@@ -3993,7 +3993,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
         <v>127</v>
       </c>
@@ -4019,14 +4019,14 @@
         <v>143</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="12"/>
       <c r="E172" s="11"/>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="s">
         <v>0</v>
       </c>
@@ -4034,7 +4034,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>238</v>
       </c>
@@ -4042,7 +4042,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>2</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>14</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>1</v>
       </c>
@@ -4066,7 +4066,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>4</v>
       </c>
@@ -4082,7 +4082,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>239</v>
       </c>
@@ -4090,12 +4090,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="s">
         <v>7</v>
       </c>
@@ -4124,7 +4124,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183" t="str">
         <f>B173</f>
         <v>GaAs ingot production - x-ray, cropping, grinding notch</v>
@@ -4151,7 +4151,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>249</v>
       </c>
@@ -4175,7 +4175,7 @@
       </c>
       <c r="I184" s="9"/>
     </row>
-    <row r="185" spans="1:9">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>144</v>
       </c>
@@ -4201,7 +4201,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>251</v>
       </c>
@@ -4224,7 +4224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="187" spans="1:9">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>120</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>120</v>
       </c>
@@ -4276,7 +4276,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>120</v>
       </c>
@@ -4302,7 +4302,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>127</v>
       </c>
@@ -4328,14 +4328,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191" s="9"/>
       <c r="B191" s="9"/>
       <c r="C191" s="13"/>
       <c r="D191" s="14"/>
       <c r="E191" s="9"/>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>0</v>
       </c>
@@ -4343,7 +4343,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>238</v>
       </c>
@@ -4351,7 +4351,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>2</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>14</v>
       </c>
@@ -4367,7 +4367,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>1</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>8</v>
       </c>
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>4</v>
       </c>
@@ -4391,7 +4391,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>239</v>
       </c>
@@ -4399,12 +4399,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201" s="2" t="s">
         <v>7</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202" t="str">
         <f>B192</f>
         <v>diamond saw production</v>
@@ -4460,7 +4460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203" s="9" t="s">
         <v>151</v>
       </c>
@@ -4486,7 +4486,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>252</v>
       </c>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="I204" s="9"/>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>120</v>
       </c>
@@ -4536,13 +4536,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206" s="9"/>
       <c r="B206" s="9"/>
       <c r="C206" s="6"/>
       <c r="D206" s="10"/>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="s">
         <v>0</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>238</v>
       </c>
@@ -4558,7 +4558,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>2</v>
       </c>
@@ -4566,7 +4566,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>14</v>
       </c>
@@ -4574,7 +4574,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>1</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>8</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>4</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>239</v>
       </c>
@@ -4606,12 +4606,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216" s="2" t="s">
         <v>7</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217" t="str">
         <f>B207</f>
         <v>synthetic diamond production</v>
@@ -4667,7 +4667,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218" s="15" t="s">
         <v>204</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>273</v>
       </c>
@@ -4719,7 +4719,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>120</v>
       </c>
@@ -4745,10 +4745,10 @@
         <v>131</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221" s="18"/>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="s">
         <v>0</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>238</v>
       </c>
@@ -4764,7 +4764,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>2</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>14</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>1</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>8</v>
       </c>
@@ -4796,7 +4796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>4</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>239</v>
       </c>
@@ -4812,12 +4812,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231" s="2" t="s">
         <v>7</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232" t="str">
         <f>B222</f>
         <v>raw GaAs wafer production</v>
@@ -4873,7 +4873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>250</v>
       </c>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="I233" s="9"/>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234" s="9" t="s">
         <v>144</v>
       </c>
@@ -4923,7 +4923,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235" s="9" t="s">
         <v>254</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>251</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>120</v>
       </c>
@@ -4998,7 +4998,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>120</v>
       </c>
@@ -5024,7 +5024,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239" s="9" t="s">
         <v>127</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -5061,7 +5061,7 @@
       <c r="H240" s="2"/>
       <c r="I240" s="2"/>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>0</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>238</v>
       </c>
@@ -5077,7 +5077,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>2</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>14</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>1</v>
       </c>
@@ -5101,7 +5101,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>8</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>4</v>
       </c>
@@ -5117,7 +5117,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>239</v>
       </c>
@@ -5125,12 +5125,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250" s="2" t="s">
         <v>7</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="251" spans="1:9">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251" t="str">
         <f>B241</f>
         <v>sawing slurry production</v>
@@ -5185,7 +5185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="252" spans="1:9">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252" s="9" t="s">
         <v>156</v>
       </c>
@@ -5211,7 +5211,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="253" spans="1:9">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253" s="9" t="s">
         <v>264</v>
       </c>
@@ -5237,13 +5237,13 @@
         <v>159</v>
       </c>
     </row>
-    <row r="254" spans="1:9">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B254" s="9"/>
       <c r="C254" s="9"/>
       <c r="D254" s="14"/>
       <c r="E254" s="9"/>
     </row>
-    <row r="255" spans="1:9">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255" s="2" t="s">
         <v>0</v>
       </c>
@@ -5251,7 +5251,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="256" spans="1:9">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>238</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="257" spans="1:9">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>2</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="258" spans="1:9">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>14</v>
       </c>
@@ -5275,7 +5275,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="259" spans="1:9">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>1</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="260" spans="1:9">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>8</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:9">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>4</v>
       </c>
@@ -5299,7 +5299,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:9">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>239</v>
       </c>
@@ -5307,12 +5307,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="263" spans="1:9">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A263" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="264" spans="1:9">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A264" s="2" t="s">
         <v>7</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="265" spans="1:9">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A265" t="str">
         <f>B255</f>
         <v>etched GaAs wafer production - cleaning, etching</v>
@@ -5368,7 +5368,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="266" spans="1:9">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>253</v>
       </c>
@@ -5392,7 +5392,7 @@
       </c>
       <c r="I266" s="9"/>
     </row>
-    <row r="267" spans="1:9">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A267" s="9" t="s">
         <v>162</v>
       </c>
@@ -5416,7 +5416,7 @@
       </c>
       <c r="I267" s="9"/>
     </row>
-    <row r="268" spans="1:9">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A268" s="9" t="s">
         <v>170</v>
       </c>
@@ -5442,7 +5442,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="269" spans="1:9">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A269" s="9" t="s">
         <v>110</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="270" spans="1:9">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>120</v>
       </c>
@@ -5494,7 +5494,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="271" spans="1:9">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>120</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="272" spans="1:9">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A272" s="9" t="s">
         <v>127</v>
       </c>
@@ -5546,14 +5546,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="273" spans="1:9">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A273" s="9"/>
       <c r="B273" s="9"/>
       <c r="C273" s="13"/>
       <c r="D273" s="14"/>
       <c r="E273" s="9"/>
     </row>
-    <row r="274" spans="1:9">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A274" s="2" t="s">
         <v>0</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="275" spans="1:9">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>238</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="276" spans="1:9">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>2</v>
       </c>
@@ -5577,7 +5577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="277" spans="1:9">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>14</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="278" spans="1:9">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>1</v>
       </c>
@@ -5593,7 +5593,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="279" spans="1:9">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>8</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:9">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>4</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:9">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>239</v>
       </c>
@@ -5617,12 +5617,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="282" spans="1:9">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A282" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="283" spans="1:9">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A283" s="2" t="s">
         <v>7</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="284" spans="1:9">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A284" t="str">
         <f>B274</f>
         <v>pre-polished GaAs wafer production</v>
@@ -5678,7 +5678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="285" spans="1:9">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>255</v>
       </c>
@@ -5702,7 +5702,7 @@
       </c>
       <c r="I285" s="9"/>
     </row>
-    <row r="286" spans="1:9">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A286" s="9" t="s">
         <v>113</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="287" spans="1:9">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>254</v>
       </c>
@@ -5752,7 +5752,7 @@
       </c>
       <c r="I287" s="9"/>
     </row>
-    <row r="288" spans="1:9">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>120</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="289" spans="1:9">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A289" s="9" t="s">
         <v>127</v>
       </c>
@@ -5804,14 +5804,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="290" spans="1:9">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A290" s="9"/>
       <c r="B290" s="9"/>
       <c r="C290" s="13"/>
       <c r="D290" s="14"/>
       <c r="E290" s="9"/>
     </row>
-    <row r="291" spans="1:9">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A291" s="2" t="s">
         <v>0</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="292" spans="1:9">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>238</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="293" spans="1:9">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>2</v>
       </c>
@@ -5835,7 +5835,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="294" spans="1:9">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>14</v>
       </c>
@@ -5843,7 +5843,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="295" spans="1:9">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>1</v>
       </c>
@@ -5851,7 +5851,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="296" spans="1:9">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>8</v>
       </c>
@@ -5859,7 +5859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:9">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>4</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:9">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>239</v>
       </c>
@@ -5875,12 +5875,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="299" spans="1:9">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A299" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="300" spans="1:9">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>7</v>
       </c>
@@ -5909,7 +5909,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="301" spans="1:9">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A301" t="str">
         <f>B291</f>
         <v>double-polished GaAs wafer production - chemical, mechanical polishing (CMP)</v>
@@ -5936,7 +5936,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:9">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A302" s="9" t="s">
         <v>256</v>
       </c>
@@ -5960,7 +5960,7 @@
       </c>
       <c r="I302" s="9"/>
     </row>
-    <row r="303" spans="1:9">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A303" s="9" t="s">
         <v>113</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="304" spans="1:9">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A304" s="9" t="s">
         <v>258</v>
       </c>
@@ -6010,7 +6010,7 @@
       </c>
       <c r="I304" s="9"/>
     </row>
-    <row r="305" spans="1:9">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>120</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="306" spans="1:9">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A306" s="9" t="s">
         <v>127</v>
       </c>
@@ -6062,14 +6062,14 @@
         <v>149</v>
       </c>
     </row>
-    <row r="307" spans="1:9">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A307" s="9"/>
       <c r="B307" s="9"/>
       <c r="C307" s="13"/>
       <c r="D307" s="14"/>
       <c r="E307" s="9"/>
     </row>
-    <row r="308" spans="1:9">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A308" s="2" t="s">
         <v>0</v>
       </c>
@@ -6077,7 +6077,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="309" spans="1:9">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>238</v>
       </c>
@@ -6085,7 +6085,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="310" spans="1:9">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>2</v>
       </c>
@@ -6093,7 +6093,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="311" spans="1:9">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>14</v>
       </c>
@@ -6101,7 +6101,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="312" spans="1:9">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>1</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="313" spans="1:9">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>8</v>
       </c>
@@ -6117,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:9">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>4</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="315" spans="1:9">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>239</v>
       </c>
@@ -6133,12 +6133,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="316" spans="1:9">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A316" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="317" spans="1:9">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A317" s="2" t="s">
         <v>7</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="318" spans="1:9">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A318" t="str">
         <f>B308</f>
         <v>CMP slurry production</v>
@@ -6194,7 +6194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="319" spans="1:9">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A319" s="9" t="s">
         <v>156</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="320" spans="1:9">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A320" s="9" t="s">
         <v>162</v>
       </c>
@@ -6244,7 +6244,7 @@
       </c>
       <c r="I320" s="9"/>
     </row>
-    <row r="321" spans="1:9">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>101</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="322" spans="1:9">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A322" s="9"/>
       <c r="B322" s="9"/>
       <c r="C322" s="13"/>
@@ -6278,7 +6278,7 @@
       <c r="H322" s="13"/>
       <c r="I322" s="9"/>
     </row>
-    <row r="323" spans="1:9">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A323" s="2" t="s">
         <v>0</v>
       </c>
@@ -6286,7 +6286,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="324" spans="1:9">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>238</v>
       </c>
@@ -6294,7 +6294,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="325" spans="1:9">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>2</v>
       </c>
@@ -6302,7 +6302,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="326" spans="1:9">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>14</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="327" spans="1:9">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>1</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="328" spans="1:9">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>8</v>
       </c>
@@ -6326,7 +6326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>4</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="330" spans="1:9">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>239</v>
       </c>
@@ -6342,12 +6342,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="331" spans="1:9">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A331" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="332" spans="1:9">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A332" s="2" t="s">
         <v>7</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="333" spans="1:9">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A333" t="str">
         <f>B323</f>
         <v>GaAs wafer production - cleaning, quality control, packing</v>
@@ -6403,7 +6403,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="334" spans="1:9">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A334" s="9" t="s">
         <v>257</v>
       </c>
@@ -6427,7 +6427,7 @@
       </c>
       <c r="I334" s="9"/>
     </row>
-    <row r="335" spans="1:9">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A335" s="9" t="s">
         <v>162</v>
       </c>
@@ -6451,7 +6451,7 @@
       </c>
       <c r="I335" s="9"/>
     </row>
-    <row r="336" spans="1:9">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>101</v>
       </c>
@@ -6475,7 +6475,7 @@
       </c>
       <c r="I336" s="9"/>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A337" s="9" t="s">
         <v>176</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A338" s="9" t="s">
         <v>180</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="339" spans="1:9">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A339" s="9" t="s">
         <v>183</v>
       </c>
@@ -6553,7 +6553,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="340" spans="1:9">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>120</v>
       </c>
@@ -6579,7 +6579,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="341" spans="1:9">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>120</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="343" spans="1:9">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>0</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="344" spans="1:9">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>238</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="345" spans="1:9">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>2</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="346" spans="1:9">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>14</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>1</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="348" spans="1:9">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>8</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:9">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>4</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="350" spans="1:9">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>239</v>
       </c>
@@ -6669,12 +6669,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="351" spans="1:9">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A351" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="352" spans="1:9">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A352" s="2" t="s">
         <v>7</v>
       </c>
@@ -6703,7 +6703,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="353" spans="1:9">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A353" t="str">
         <f>B343</f>
         <v>trimethyl aluminum 99% pure production</v>
@@ -6729,7 +6729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="354" spans="1:9">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A354" s="8" t="s">
         <v>261</v>
       </c>
@@ -6753,7 +6753,7 @@
       </c>
       <c r="I354" s="9"/>
     </row>
-    <row r="355" spans="1:9">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A355" s="8" t="s">
         <v>270</v>
       </c>
@@ -6777,7 +6777,7 @@
       </c>
       <c r="I355" s="9"/>
     </row>
-    <row r="356" spans="1:9">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A356" s="22" t="s">
         <v>269</v>
       </c>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="I356" s="9"/>
     </row>
-    <row r="357" spans="1:9">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A357" s="8" t="s">
         <v>267</v>
       </c>
@@ -6824,7 +6824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="358" spans="1:9">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>120</v>
       </c>
@@ -6847,7 +6847,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="359" spans="1:9">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>89</v>
       </c>
@@ -6873,7 +6873,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="361" spans="1:9">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A361" s="2" t="s">
         <v>0</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="362" spans="1:9">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>238</v>
       </c>
@@ -6889,7 +6889,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="363" spans="1:9">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>2</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="364" spans="1:9">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>14</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="365" spans="1:9">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>1</v>
       </c>
@@ -6913,7 +6913,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="366" spans="1:9">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>8</v>
       </c>
@@ -6921,7 +6921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:9">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>4</v>
       </c>
@@ -6929,7 +6929,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="368" spans="1:9">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>239</v>
       </c>
@@ -6937,12 +6937,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="369" spans="1:9">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A369" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="370" spans="1:9">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A370" s="2" t="s">
         <v>7</v>
       </c>
@@ -6971,7 +6971,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="371" spans="1:9">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A371" t="str">
         <f>B361</f>
         <v>methyl aluminum sesquichloride production</v>
@@ -6997,7 +6997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="372" spans="1:9" s="25" customFormat="1">
+    <row r="372" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A372" s="22" t="s">
         <v>185</v>
       </c>
@@ -7022,7 +7022,7 @@
       <c r="H372"/>
       <c r="I372" s="22"/>
     </row>
-    <row r="373" spans="1:9">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A373" s="22" t="s">
         <v>188</v>
       </c>
@@ -7048,7 +7048,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="374" spans="1:9">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A374" s="22" t="s">
         <v>189</v>
       </c>
@@ -7072,7 +7072,7 @@
       </c>
       <c r="I374" s="22"/>
     </row>
-    <row r="375" spans="1:9">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>120</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="376" spans="1:9" s="6" customFormat="1">
+    <row r="376" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A376" s="22" t="s">
         <v>207</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="377" spans="1:9">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A377" s="22" t="s">
         <v>208</v>
       </c>
@@ -7141,7 +7141,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="379" spans="1:9">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A379" s="2" t="s">
         <v>0</v>
       </c>
@@ -7149,7 +7149,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="380" spans="1:9">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>238</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="381" spans="1:9">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>2</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="382" spans="1:9">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>14</v>
       </c>
@@ -7173,7 +7173,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="383" spans="1:9">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>1</v>
       </c>
@@ -7181,7 +7181,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="384" spans="1:9">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>8</v>
       </c>
@@ -7189,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:9">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>4</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="386" spans="1:9">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>239</v>
       </c>
@@ -7205,12 +7205,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="387" spans="1:9">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="388" spans="1:9">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>7</v>
       </c>
@@ -7239,7 +7239,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="389" spans="1:9">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A389" t="str">
         <f>B379</f>
         <v>trimethyl gallium 99% pure production</v>
@@ -7265,7 +7265,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="390" spans="1:9">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A390" s="22" t="s">
         <v>263</v>
       </c>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="I390" s="22"/>
     </row>
-    <row r="391" spans="1:9">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A391" s="22" t="s">
         <v>260</v>
       </c>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="I391" s="22"/>
     </row>
-    <row r="392" spans="1:9">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A392" s="22" t="s">
         <v>200</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="393" spans="1:9">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>120</v>
       </c>
@@ -7362,7 +7362,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="394" spans="1:9" s="6" customFormat="1">
+    <row r="394" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A394" s="22" t="s">
         <v>194</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="396" spans="1:9">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A396" s="2" t="s">
         <v>0</v>
       </c>
@@ -7397,7 +7397,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="397" spans="1:9">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>238</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="398" spans="1:9">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>2</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="399" spans="1:9">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>14</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="400" spans="1:9">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>1</v>
       </c>
@@ -7429,7 +7429,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="401" spans="1:9">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>8</v>
       </c>
@@ -7437,7 +7437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:9">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>4</v>
       </c>
@@ -7445,7 +7445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="403" spans="1:9">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>239</v>
       </c>
@@ -7453,12 +7453,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="404" spans="1:9">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="405" spans="1:9">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" s="2" t="s">
         <v>7</v>
       </c>
@@ -7487,7 +7487,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="406" spans="1:9">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A406" t="str">
         <f>B396</f>
         <v>gallium chloride production</v>
@@ -7513,7 +7513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="407" spans="1:9">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A407" s="8" t="s">
         <v>129</v>
       </c>
@@ -7537,7 +7537,7 @@
       </c>
       <c r="I407" s="9"/>
     </row>
-    <row r="408" spans="1:9">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A408" s="8" t="s">
         <v>197</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="409" spans="1:9">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>120</v>
       </c>
@@ -7587,14 +7587,14 @@
       </c>
       <c r="I409" s="9"/>
     </row>
-    <row r="410" spans="1:9">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A410" s="8"/>
       <c r="B410" s="8"/>
       <c r="C410" s="21"/>
       <c r="D410" s="26"/>
       <c r="E410" s="8"/>
     </row>
-    <row r="411" spans="1:9">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A411" s="2" t="s">
         <v>0</v>
       </c>
@@ -7602,7 +7602,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="412" spans="1:9">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>238</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="413" spans="1:9">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>2</v>
       </c>
@@ -7618,7 +7618,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="414" spans="1:9">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>14</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="415" spans="1:9">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>1</v>
       </c>
@@ -7634,7 +7634,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="416" spans="1:9">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>8</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:9">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>4</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="418" spans="1:9">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>239</v>
       </c>
@@ -7658,12 +7658,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="419" spans="1:9">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A419" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="420" spans="1:9">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A420" s="2" t="s">
         <v>7</v>
       </c>
@@ -7692,7 +7692,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="421" spans="1:9">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A421" t="str">
         <f>B411</f>
         <v>photovoltaic installation, 0.28kWp, GaAs</v>
@@ -7722,7 +7722,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="422" spans="1:9">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>120</v>
       </c>
@@ -7746,7 +7746,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="423" spans="1:9">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A423" s="8" t="s">
         <v>223</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="424" spans="1:9">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>229</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="425" spans="1:9">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>225</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="426" spans="1:9">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A426" s="8" t="s">
         <v>243</v>
       </c>
@@ -7851,7 +7851,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="427" spans="1:9">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>282</v>
       </c>
@@ -7875,7 +7875,7 @@
       </c>
       <c r="I427" s="28"/>
     </row>
-    <row r="429" spans="1:9">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A429" s="2" t="s">
         <v>0</v>
       </c>
@@ -7883,7 +7883,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="430" spans="1:9">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>238</v>
       </c>
@@ -7891,7 +7891,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="431" spans="1:9">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>2</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="432" spans="1:9">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>14</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="433" spans="1:13">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>1</v>
       </c>
@@ -7915,7 +7915,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="434" spans="1:13">
+    <row r="434" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>8</v>
       </c>
@@ -7923,7 +7923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:13">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>4</v>
       </c>
@@ -7931,7 +7931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="436" spans="1:13">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>239</v>
       </c>
@@ -7939,12 +7939,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="437" spans="1:13">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="438" spans="1:13">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>7</v>
       </c>
@@ -7985,7 +7985,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="439" spans="1:13">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" t="str">
         <f>B429</f>
         <v xml:space="preserve">electricity production, photovoltaic, 0.28kWp, GaAs </v>
@@ -8011,7 +8011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="440" spans="1:13">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" s="8" t="s">
         <v>272</v>
       </c>
@@ -8045,15 +8045,15 @@
         <v>8.2385895534684459E-5</v>
       </c>
       <c r="L440">
-        <f>1/0.28/1700/40/0.85/100</f>
-        <v>6.1789421651013346E-7</v>
-      </c>
-      <c r="M440">
-        <f>1/0.28/1700/20/0.85/100</f>
-        <v>1.2357884330202669E-6</v>
-      </c>
-    </row>
-    <row r="441" spans="1:13">
+        <f>1/0.28/1700/40/0.85</f>
+        <v>6.1789421651013341E-5</v>
+      </c>
+      <c r="M440" s="7">
+        <f>1/0.28/1700/20/0.85</f>
+        <v>1.2357884330202668E-4</v>
+      </c>
+    </row>
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" s="28" t="s">
         <v>235</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="442" spans="1:13">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" s="30" t="s">
         <v>236</v>
       </c>
@@ -8107,7 +8107,7 @@
       <c r="H442" s="28"/>
       <c r="I442" s="32"/>
     </row>
-    <row r="443" spans="1:13">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" s="28" t="s">
         <v>202</v>
       </c>
@@ -8131,7 +8131,7 @@
       </c>
       <c r="I443" s="28"/>
     </row>
-    <row r="444" spans="1:13">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" s="30" t="s">
         <v>230</v>
       </c>
